--- a/cumulative_results.xlsx
+++ b/cumulative_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +403,46 @@
           <t>upper</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>npar</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BIC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>logLik</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>deviance</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Chisq</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Df</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;Chisq)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -431,10 +471,25 @@
         <v>0.04964264048460895</v>
       </c>
       <c r="H2">
-        <v>0.3069209018816848</v>
+        <v>0.2862340954906926</v>
       </c>
       <c r="I2">
-        <v>1.741727816232951</v>
+        <v>1.648967338964327</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L2">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M2">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N2">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="3">
@@ -464,10 +519,25 @@
         <v>0.6028693164558701</v>
       </c>
       <c r="H3">
-        <v>-0.5331820768566752</v>
+        <v>-0.3856633561857863</v>
       </c>
       <c r="I3">
-        <v>0.759499803023241</v>
+        <v>0.7109394422838996</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L3">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M3">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N3">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +567,25 @@
         <v>0.386240323001902</v>
       </c>
       <c r="H4">
-        <v>-0.7737002888103131</v>
+        <v>-0.75872991513925</v>
       </c>
       <c r="I4">
-        <v>0.3144149942926784</v>
+        <v>0.2683497172284998</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L4">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M4">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N4">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +615,25 @@
         <v>0.03659352146781997</v>
       </c>
       <c r="H5">
-        <v>-1.047970796498991</v>
+        <v>-1.01890985232992</v>
       </c>
       <c r="I5">
-        <v>-0.02166874387469865</v>
+        <v>0.04640187659852996</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L5">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M5">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N5">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="6">
@@ -563,10 +663,25 @@
         <v>0.02865195558438659</v>
       </c>
       <c r="H6">
-        <v>0.0262788860644401</v>
+        <v>0.006562047272790326</v>
       </c>
       <c r="I6">
-        <v>0.4571100061287585</v>
+        <v>0.4529963286423255</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L6">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M6">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N6">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="7">
@@ -596,10 +711,25 @@
         <v>0.9448898796854626</v>
       </c>
       <c r="H7">
-        <v>-0.1979151506112642</v>
+        <v>-0.209186906951652</v>
       </c>
       <c r="I7">
-        <v>0.2178628615917741</v>
+        <v>0.216223496922463</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L7">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M7">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N7">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="8">
@@ -629,10 +759,25 @@
         <v>0.2932670504991191</v>
       </c>
       <c r="H8">
-        <v>-0.5685731351198786</v>
+        <v>-0.5420026229208045</v>
       </c>
       <c r="I8">
-        <v>0.1490249654206023</v>
+        <v>0.2049381797783333</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L8">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M8">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N8">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +807,25 @@
         <v>0.07750829082893188</v>
       </c>
       <c r="H9">
-        <v>-0.5715970610093958</v>
+        <v>-0.594090219936199</v>
       </c>
       <c r="I9">
-        <v>0.06350303243048017</v>
+        <v>0.06775443910799996</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L9">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M9">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N9">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="10">
@@ -695,10 +855,25 @@
         <v>0.817717335487248</v>
       </c>
       <c r="H10">
-        <v>-0.2255790400718585</v>
+        <v>-0.2078895971868763</v>
       </c>
       <c r="I10">
-        <v>0.2464239887215125</v>
+        <v>0.2758790143920343</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L10">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M10">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N10">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="11">
@@ -728,10 +903,25 @@
         <v>0.5634618251164623</v>
       </c>
       <c r="H11">
-        <v>-0.3434214135987804</v>
+        <v>-0.3303061346749652</v>
       </c>
       <c r="I11">
-        <v>0.1685775450593807</v>
+        <v>0.1685190126524619</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L11">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M11">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N11">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="12">
@@ -761,10 +951,25 @@
         <v>0.2400809627951311</v>
       </c>
       <c r="H12">
-        <v>-0.1827219819357007</v>
+        <v>-0.185218066585658</v>
       </c>
       <c r="I12">
-        <v>0.7526125487991261</v>
+        <v>0.7447657300540489</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L12">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M12">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N12">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="13">
@@ -794,10 +999,25 @@
         <v>0.3064575649738183</v>
       </c>
       <c r="H13">
-        <v>-0.2431266289084113</v>
+        <v>-0.2038332389873086</v>
       </c>
       <c r="I13">
-        <v>0.6544090653082518</v>
+        <v>0.7191129042648454</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L13">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M13">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N13">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="14">
@@ -827,10 +1047,25 @@
         <v>0.6054857849294826</v>
       </c>
       <c r="H14">
-        <v>-0.4702450616975595</v>
+        <v>-0.4549225709284624</v>
       </c>
       <c r="I14">
-        <v>0.2178830804406787</v>
+        <v>0.2208791779373557</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>1312.56295726069</v>
+      </c>
+      <c r="L14">
+        <v>1373.396851266723</v>
+      </c>
+      <c r="M14">
+        <v>-640.2814786303452</v>
+      </c>
+      <c r="N14">
+        <v>1280.56295726069</v>
       </c>
     </row>
     <row r="15">
@@ -860,10 +1095,34 @@
         <v>0.05812185553694306</v>
       </c>
       <c r="H15">
-        <v>0.251956429958556</v>
+        <v>0.3503323524768479</v>
       </c>
       <c r="I15">
-        <v>1.72851500534969</v>
+        <v>1.678295774196313</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L15">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M15">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N15">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O15">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="16">
@@ -893,10 +1152,34 @@
         <v>0.004307415602908025</v>
       </c>
       <c r="H16">
-        <v>0.3366010018743768</v>
+        <v>0.2954894333941566</v>
       </c>
       <c r="I16">
-        <v>1.771729374873538</v>
+        <v>1.85059744763241</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L16">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M16">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N16">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O16">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="17">
@@ -926,10 +1209,34 @@
         <v>0.5155238728790634</v>
       </c>
       <c r="H17">
-        <v>-0.8490241269438108</v>
+        <v>-0.7993290502379676</v>
       </c>
       <c r="I17">
-        <v>0.3719848506098375</v>
+        <v>0.3574556335416999</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L17">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M17">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N17">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O17">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="18">
@@ -959,10 +1266,34 @@
         <v>0.678039927149849</v>
       </c>
       <c r="H18">
-        <v>-0.6802391574970994</v>
+        <v>-0.65716948170628</v>
       </c>
       <c r="I18">
-        <v>0.3912384891832481</v>
+        <v>0.4342156524684461</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L18">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M18">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N18">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O18">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="19">
@@ -992,10 +1323,34 @@
         <v>0.4090643909381595</v>
       </c>
       <c r="H19">
-        <v>-0.8503546404329602</v>
+        <v>-0.8610621813422327</v>
       </c>
       <c r="I19">
-        <v>0.295771635079566</v>
+        <v>0.3128270876381522</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L19">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M19">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N19">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O19">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="20">
@@ -1025,10 +1380,34 @@
         <v>0.03279137701991269</v>
       </c>
       <c r="H20">
-        <v>-1.629699222923398</v>
+        <v>-1.584011153275394</v>
       </c>
       <c r="I20">
-        <v>-0.1515334313904968</v>
+        <v>-0.03264317216036437</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L20">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M20">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N20">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O20">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="21">
@@ -1058,10 +1437,34 @@
         <v>0.02760057400643724</v>
       </c>
       <c r="H21">
-        <v>0.001855405571353184</v>
+        <v>0.02458238190772083</v>
       </c>
       <c r="I21">
-        <v>0.4551650302055547</v>
+        <v>0.4529090083278975</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L21">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M21">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N21">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O21">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="22">
@@ -1091,10 +1494,34 @@
         <v>0.6799018601661131</v>
       </c>
       <c r="H22">
-        <v>-0.1642742329324593</v>
+        <v>-0.1604459511345854</v>
       </c>
       <c r="I22">
-        <v>0.2742036269060251</v>
+        <v>0.2454738191131656</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L22">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M22">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N22">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O22">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="23">
@@ -1124,10 +1551,34 @@
         <v>0.3882036853072163</v>
       </c>
       <c r="H23">
-        <v>-0.506042227720426</v>
+        <v>-0.4762321292867966</v>
       </c>
       <c r="I23">
-        <v>0.226750644132869</v>
+        <v>0.2121530345600002</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L23">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M23">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N23">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O23">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="24">
@@ -1157,10 +1608,34 @@
         <v>0.1670040167557344</v>
       </c>
       <c r="H24">
-        <v>-0.5383929634374526</v>
+        <v>-0.5390743257483683</v>
       </c>
       <c r="I24">
-        <v>0.07757246495268476</v>
+        <v>0.08497938811892621</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L24">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M24">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N24">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O24">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="25">
@@ -1190,10 +1665,34 @@
         <v>0.9928509467147366</v>
       </c>
       <c r="H25">
-        <v>-0.2312174946874582</v>
+        <v>-0.2215532296616132</v>
       </c>
       <c r="I25">
-        <v>0.245712308144347</v>
+        <v>0.2444659215465013</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L25">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M25">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N25">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O25">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="26">
@@ -1223,10 +1722,34 @@
         <v>0.789229887055815</v>
       </c>
       <c r="H26">
-        <v>-0.285776959456242</v>
+        <v>-0.2844730655598888</v>
       </c>
       <c r="I26">
-        <v>0.2110009589875045</v>
+        <v>0.198991600251633</v>
+      </c>
+      <c r="J26">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L26">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M26">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N26">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O26">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="27">
@@ -1256,10 +1779,34 @@
         <v>0.325594064051256</v>
       </c>
       <c r="H27">
-        <v>-0.2457588271564176</v>
+        <v>-0.2821687751094802</v>
       </c>
       <c r="I27">
-        <v>0.6855663649185361</v>
+        <v>0.688194791328801</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L27">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M27">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N27">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O27">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="28">
@@ -1289,10 +1836,34 @@
         <v>0.4106991278636435</v>
       </c>
       <c r="H28">
-        <v>-0.2290251351152283</v>
+        <v>-0.2407674385682356</v>
       </c>
       <c r="I28">
-        <v>0.6104189567926602</v>
+        <v>0.6128732183646094</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L28">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M28">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N28">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O28">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="29">
@@ -1322,10 +1893,34 @@
         <v>0.4271125636813243</v>
       </c>
       <c r="H29">
-        <v>-0.493688797991767</v>
+        <v>-0.4625301030330881</v>
       </c>
       <c r="I29">
-        <v>0.2025237809450629</v>
+        <v>0.1911731166775313</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>1305.807720409842</v>
+      </c>
+      <c r="L29">
+        <v>1374.24585116663</v>
+      </c>
+      <c r="M29">
+        <v>-634.9038602049212</v>
+      </c>
+      <c r="N29">
+        <v>1269.807720409842</v>
+      </c>
+      <c r="O29">
+        <v>10.75523685084795</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>0.004618808879478783</v>
       </c>
     </row>
     <row r="30">
@@ -1355,10 +1950,34 @@
         <v>0.06252292722425552</v>
       </c>
       <c r="H30">
-        <v>0.2101770240576655</v>
+        <v>0.3125829819526447</v>
       </c>
       <c r="I30">
-        <v>1.648281432330497</v>
+        <v>1.609924375241359</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L30">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M30">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N30">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1388,10 +2007,34 @@
         <v>0.004849334745694508</v>
       </c>
       <c r="H31">
-        <v>0.4254027431318351</v>
+        <v>0.33032748846421</v>
       </c>
       <c r="I31">
-        <v>2.209638081207873</v>
+        <v>2.190418517249494</v>
+      </c>
+      <c r="J31">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L31">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M31">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N31">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1421,10 +2064,34 @@
         <v>0.9186748126778145</v>
       </c>
       <c r="H32">
-        <v>-0.7220347162306118</v>
+        <v>-0.734644387179208</v>
       </c>
       <c r="I32">
-        <v>0.6219678794868515</v>
+        <v>0.6831429284207239</v>
+      </c>
+      <c r="J32">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L32">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M32">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N32">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1454,10 +2121,34 @@
         <v>0.4481234189980438</v>
       </c>
       <c r="H33">
-        <v>-0.7807192929348717</v>
+        <v>-0.7964892139021089</v>
       </c>
       <c r="I33">
-        <v>0.374227983571693</v>
+        <v>0.3066575248178697</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L33">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M33">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N33">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1487,10 +2178,34 @@
         <v>0.3671602410124577</v>
       </c>
       <c r="H34">
-        <v>-0.8609852877159415</v>
+        <v>-0.8396189919628324</v>
       </c>
       <c r="I34">
-        <v>0.2972058953064973</v>
+        <v>0.2812554753050258</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L34">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M34">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N34">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1520,10 +2235,34 @@
         <v>0.7668946240781603</v>
       </c>
       <c r="H35">
-        <v>-0.7757245067579137</v>
+        <v>-0.7594545357787538</v>
       </c>
       <c r="I35">
-        <v>0.5631500345808723</v>
+        <v>0.5402843201127598</v>
+      </c>
+      <c r="J35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L35">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M35">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N35">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1553,10 +2292,34 @@
         <v>0.03108283570422055</v>
       </c>
       <c r="H36">
-        <v>-1.891762520054973</v>
+        <v>-1.738115458740259</v>
       </c>
       <c r="I36">
-        <v>-0.1166646954134128</v>
+        <v>-0.04179908567843431</v>
+      </c>
+      <c r="J36">
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L36">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M36">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N36">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1586,10 +2349,34 @@
         <v>0.02175506015455142</v>
       </c>
       <c r="H37">
-        <v>0.06330029031348122</v>
+        <v>0.01115372992588829</v>
       </c>
       <c r="I37">
-        <v>0.4794748024910525</v>
+        <v>0.4533302956142493</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L37">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M37">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N37">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1619,10 +2406,34 @@
         <v>0.6977696725009876</v>
       </c>
       <c r="H38">
-        <v>-0.1926972394255149</v>
+        <v>-0.1712367182825224</v>
       </c>
       <c r="I38">
-        <v>0.2312856259888359</v>
+        <v>0.2455096365025987</v>
+      </c>
+      <c r="J38">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L38">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M38">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N38">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1652,10 +2463,34 @@
         <v>0.3802621071032635</v>
       </c>
       <c r="H39">
-        <v>-0.5651330074247481</v>
+        <v>-0.5002049795210112</v>
       </c>
       <c r="I39">
-        <v>0.2158296829276786</v>
+        <v>0.191529337971982</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L39">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M39">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N39">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1685,10 +2520,34 @@
         <v>0.1410514875989229</v>
       </c>
       <c r="H40">
-        <v>-0.5505982074884667</v>
+        <v>-0.5455031111243596</v>
       </c>
       <c r="I40">
-        <v>0.08830397579955485</v>
+        <v>0.07736329385446518</v>
+      </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L40">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M40">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N40">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1718,10 +2577,34 @@
         <v>0.8959805637514762</v>
       </c>
       <c r="H41">
-        <v>-0.2081853161064861</v>
+        <v>-0.2028372948973302</v>
       </c>
       <c r="I41">
-        <v>0.2551802887857036</v>
+        <v>0.2493083657628704</v>
+      </c>
+      <c r="J41">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L41">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M41">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N41">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1751,10 +2634,34 @@
         <v>0.68815076450387</v>
       </c>
       <c r="H42">
-        <v>-0.3160568998587638</v>
+        <v>-0.3218395372746429</v>
       </c>
       <c r="I42">
-        <v>0.2237311093425588</v>
+        <v>0.2074403738074544</v>
+      </c>
+      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L42">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M42">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N42">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1784,10 +2691,34 @@
         <v>0.2290822980262702</v>
       </c>
       <c r="H43">
-        <v>-0.2190830682540639</v>
+        <v>-0.1985776008259142</v>
       </c>
       <c r="I43">
-        <v>0.7920900465664917</v>
+        <v>0.765280334170213</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L43">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M43">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N43">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1817,10 +2748,34 @@
         <v>0.2501239398540214</v>
       </c>
       <c r="H44">
-        <v>-0.1616901466226421</v>
+        <v>-0.1785622044193332</v>
       </c>
       <c r="I44">
-        <v>0.7207162179874436</v>
+        <v>0.7211604152695491</v>
+      </c>
+      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L44">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M44">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N44">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1850,10 +2805,34 @@
         <v>0.4913382811027023</v>
       </c>
       <c r="H45">
-        <v>-0.4424510506062306</v>
+        <v>-0.4165754255433853</v>
       </c>
       <c r="I45">
-        <v>0.1940853522884545</v>
+        <v>0.2152630253709437</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>1308.855755021857</v>
+      </c>
+      <c r="L45">
+        <v>1381.096004154021</v>
+      </c>
+      <c r="M45">
+        <v>-635.4278775109285</v>
+      </c>
+      <c r="N45">
+        <v>1270.855755021857</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1883,10 +2862,10 @@
         <v>0.06297009607337689</v>
       </c>
       <c r="H46">
-        <v>0.1831327346264899</v>
+        <v>0.155808429375246</v>
       </c>
       <c r="I46">
-        <v>1.622159316542892</v>
+        <v>1.622986304153297</v>
       </c>
     </row>
     <row r="47">
@@ -1916,10 +2895,10 @@
         <v>0.005049185733957656</v>
       </c>
       <c r="H47">
-        <v>0.4153619068645605</v>
+        <v>0.4079785539316004</v>
       </c>
       <c r="I47">
-        <v>2.047115088401197</v>
+        <v>2.027418079898665</v>
       </c>
     </row>
     <row r="48">
@@ -1949,10 +2928,10 @@
         <v>0.8637447796552011</v>
       </c>
       <c r="H48">
-        <v>-0.8321207088959371</v>
+        <v>-0.7665783931071387</v>
       </c>
       <c r="I48">
-        <v>0.7833954371098191</v>
+        <v>0.6853448030848063</v>
       </c>
     </row>
     <row r="49">
@@ -1982,10 +2961,10 @@
         <v>0.7142314729337769</v>
       </c>
       <c r="H49">
-        <v>-0.4979592984137305</v>
+        <v>-0.6142831104819919</v>
       </c>
       <c r="I49">
-        <v>0.7328082249678616</v>
+        <v>0.7710330737280957</v>
       </c>
     </row>
     <row r="50">
@@ -2015,10 +2994,10 @@
         <v>0.409779029170831</v>
       </c>
       <c r="H50">
-        <v>-0.8024758438480389</v>
+        <v>-0.7507291499353248</v>
       </c>
       <c r="I50">
-        <v>0.3434005588401803</v>
+        <v>0.3442006450209224</v>
       </c>
     </row>
     <row r="51">
@@ -2048,10 +3027,10 @@
         <v>0.5970401227461903</v>
       </c>
       <c r="H51">
-        <v>-0.853752653517689</v>
+        <v>-0.8687266060483141</v>
       </c>
       <c r="I51">
-        <v>0.4980674372987422</v>
+        <v>0.5070316976568988</v>
       </c>
     </row>
     <row r="52">
@@ -2081,10 +3060,10 @@
         <v>0.2563739878656627</v>
       </c>
       <c r="H52">
-        <v>-1.13440621879657</v>
+        <v>-1.103917488190971</v>
       </c>
       <c r="I52">
-        <v>0.218061949738156</v>
+        <v>0.3163342809448065</v>
       </c>
     </row>
     <row r="53">
@@ -2114,10 +3093,10 @@
         <v>0.1452463571798465</v>
       </c>
       <c r="H53">
-        <v>-1.777909831762065</v>
+        <v>-1.721754345843732</v>
       </c>
       <c r="I53">
-        <v>0.2918691548078446</v>
+        <v>0.264307641549676</v>
       </c>
     </row>
     <row r="54">
@@ -2147,10 +3126,10 @@
         <v>0.02552106059786067</v>
       </c>
       <c r="H54">
-        <v>0.0646436933857772</v>
+        <v>0.01868847809710864</v>
       </c>
       <c r="I54">
-        <v>0.4513547050110129</v>
+        <v>0.4689854913270295</v>
       </c>
     </row>
     <row r="55">
@@ -2180,10 +3159,10 @@
         <v>0.7566432838732358</v>
       </c>
       <c r="H55">
-        <v>-0.179999481623082</v>
+        <v>-0.1473158358487471</v>
       </c>
       <c r="I55">
-        <v>0.2259427674730067</v>
+        <v>0.2490705241976982</v>
       </c>
     </row>
     <row r="56">
@@ -2213,10 +3192,10 @@
         <v>0.3049960550506722</v>
       </c>
       <c r="H56">
-        <v>-0.559860274345742</v>
+        <v>-0.5271390023140043</v>
       </c>
       <c r="I56">
-        <v>0.1911453236955528</v>
+        <v>0.1900741855111074</v>
       </c>
     </row>
     <row r="57">
@@ -2246,10 +3225,10 @@
         <v>0.09608970220299448</v>
       </c>
       <c r="H57">
-        <v>-0.5665630755051345</v>
+        <v>-0.6106246844115909</v>
       </c>
       <c r="I57">
-        <v>0.05936262993024379</v>
+        <v>0.1150691857279537</v>
       </c>
     </row>
     <row r="58">
@@ -2279,10 +3258,10 @@
         <v>0.842306744464044</v>
       </c>
       <c r="H58">
-        <v>-0.2457784186756974</v>
+        <v>-0.2179177176236429</v>
       </c>
       <c r="I58">
-        <v>0.2706523699594591</v>
+        <v>0.2577271737439232</v>
       </c>
     </row>
     <row r="59">
@@ -2312,10 +3291,10 @@
         <v>0.7441152366941269</v>
       </c>
       <c r="H59">
-        <v>-0.2747501239923872</v>
+        <v>-0.273389972613713</v>
       </c>
       <c r="I59">
-        <v>0.2205014879290451</v>
+        <v>0.2038469268489081</v>
       </c>
     </row>
     <row r="60">
@@ -2345,10 +3324,10 @@
         <v>0.235145350722716</v>
       </c>
       <c r="H60">
-        <v>-0.1679464565952759</v>
+        <v>-0.1783973998305011</v>
       </c>
       <c r="I60">
-        <v>0.7806778125284742</v>
+        <v>0.7375508758310919</v>
       </c>
     </row>
     <row r="61">
@@ -2378,10 +3357,10 @@
         <v>0.2951611497403613</v>
       </c>
       <c r="H61">
-        <v>-0.2162398675865032</v>
+        <v>-0.2450139390462626</v>
       </c>
       <c r="I61">
-        <v>0.707506653980175</v>
+        <v>0.7419979674033709</v>
       </c>
     </row>
     <row r="62">
@@ -2411,10 +3390,10 @@
         <v>0.6272295597475857</v>
       </c>
       <c r="H62">
-        <v>-0.4081007376825947</v>
+        <v>-0.391308173998236</v>
       </c>
       <c r="I62">
-        <v>0.2342909159300173</v>
+        <v>0.2162879109923399</v>
       </c>
     </row>
     <row r="63">
@@ -2444,10 +3423,10 @@
         <v>0.06795618094415351</v>
       </c>
       <c r="H63">
-        <v>0.2074747854129992</v>
+        <v>0.2670468805464514</v>
       </c>
       <c r="I63">
-        <v>1.664608077268614</v>
+        <v>1.648658946821268</v>
       </c>
     </row>
     <row r="64">
@@ -2477,10 +3456,10 @@
         <v>0.009074639437384492</v>
       </c>
       <c r="H64">
-        <v>0.3701678291626072</v>
+        <v>0.4156365575662241</v>
       </c>
       <c r="I64">
-        <v>2.218762328205875</v>
+        <v>2.213695008096214</v>
       </c>
     </row>
     <row r="65">
@@ -2510,10 +3489,10 @@
         <v>0.5346110040162471</v>
       </c>
       <c r="H65">
-        <v>-1.116997475197174</v>
+        <v>-1.018417461276735</v>
       </c>
       <c r="I65">
-        <v>0.573469732436428</v>
+        <v>0.5921911705357474</v>
       </c>
     </row>
     <row r="66">
@@ -2543,10 +3522,10 @@
         <v>0.9877876072461564</v>
       </c>
       <c r="H66">
-        <v>-0.7507702445197423</v>
+        <v>-0.7733914802293201</v>
       </c>
       <c r="I66">
-        <v>0.6822247161434973</v>
+        <v>0.7059403408282521</v>
       </c>
     </row>
     <row r="67">
@@ -2576,10 +3555,10 @@
         <v>0.7562129867133393</v>
       </c>
       <c r="H67">
-        <v>-0.5135042558740527</v>
+        <v>-0.5092390612477363</v>
       </c>
       <c r="I67">
-        <v>0.8065959384670668</v>
+        <v>0.7362541185173312</v>
       </c>
     </row>
     <row r="68">
@@ -2609,10 +3588,10 @@
         <v>0.4371199836563215</v>
       </c>
       <c r="H68">
-        <v>-0.9366237512805692</v>
+        <v>-0.954693347202311</v>
       </c>
       <c r="I68">
-        <v>0.4012326362462391</v>
+        <v>0.3965136817114013</v>
       </c>
     </row>
     <row r="69">
@@ -2642,10 +3621,10 @@
         <v>0.265975840793027</v>
       </c>
       <c r="H69">
-        <v>-1.080947469156825</v>
+        <v>-1.059301475802795</v>
       </c>
       <c r="I69">
-        <v>0.2687593865414813</v>
+        <v>0.2695508167836265</v>
       </c>
     </row>
     <row r="70">
@@ -2675,10 +3654,10 @@
         <v>0.6398161157351145</v>
       </c>
       <c r="H70">
-        <v>-1.202592891669766</v>
+        <v>-1.109858240496404</v>
       </c>
       <c r="I70">
-        <v>0.6895757891360447</v>
+        <v>0.6625868018510094</v>
       </c>
     </row>
     <row r="71">
@@ -2708,10 +3687,10 @@
         <v>0.1388774323826338</v>
       </c>
       <c r="H71">
-        <v>-1.730503086812985</v>
+        <v>-1.839443780815663</v>
       </c>
       <c r="I71">
-        <v>0.2112342808621257</v>
+        <v>0.1600168304493866</v>
       </c>
     </row>
     <row r="72">
@@ -2741,10 +3720,10 @@
         <v>0.02634303725309236</v>
       </c>
       <c r="H72">
-        <v>0.05676096173683864</v>
+        <v>0.04228531468250928</v>
       </c>
       <c r="I72">
-        <v>0.4602785956309432</v>
+        <v>0.4777474124495106</v>
       </c>
     </row>
     <row r="73">
@@ -2774,10 +3753,10 @@
         <v>0.6528467733077792</v>
       </c>
       <c r="H73">
-        <v>-0.1688743170352346</v>
+        <v>-0.1528559584179251</v>
       </c>
       <c r="I73">
-        <v>0.2504799782908996</v>
+        <v>0.2520196990402656</v>
       </c>
     </row>
     <row r="74">
@@ -2807,10 +3786,10 @@
         <v>0.4309713622733931</v>
       </c>
       <c r="H74">
-        <v>-0.4895630568629628</v>
+        <v>-0.498016461233066</v>
       </c>
       <c r="I74">
-        <v>0.2150613868029253</v>
+        <v>0.2349578631451038</v>
       </c>
     </row>
     <row r="75">
@@ -2840,10 +3819,10 @@
         <v>0.1437130633060289</v>
       </c>
       <c r="H75">
-        <v>-0.5152706059455788</v>
+        <v>-0.5570215821223329</v>
       </c>
       <c r="I75">
-        <v>0.1027810024559568</v>
+        <v>0.08069249897980944</v>
       </c>
     </row>
     <row r="76">
@@ -2873,10 +3852,10 @@
         <v>0.7620249842309224</v>
       </c>
       <c r="H76">
-        <v>-0.2120439254651824</v>
+        <v>-0.2131875601963859</v>
       </c>
       <c r="I76">
-        <v>0.3009884948355417</v>
+        <v>0.2929422996964876</v>
       </c>
     </row>
     <row r="77">
@@ -2906,10 +3885,10 @@
         <v>0.8451542964897799</v>
       </c>
       <c r="H77">
-        <v>-0.2827124850534812</v>
+        <v>-0.294924092274174</v>
       </c>
       <c r="I77">
-        <v>0.2394545207089611</v>
+        <v>0.2706789530235086</v>
       </c>
     </row>
     <row r="78">
@@ -2939,10 +3918,10 @@
         <v>0.1523339419669436</v>
       </c>
       <c r="H78">
-        <v>-0.1295215287120853</v>
+        <v>-0.1097243358231692</v>
       </c>
       <c r="I78">
-        <v>0.7898877024529614</v>
+        <v>0.8663762112352434</v>
       </c>
     </row>
     <row r="79">
@@ -2972,10 +3951,10 @@
         <v>0.1937140941682198</v>
       </c>
       <c r="H79">
-        <v>-0.1240891213302673</v>
+        <v>-0.1773560147948503</v>
       </c>
       <c r="I79">
-        <v>0.7879384475793324</v>
+        <v>0.8177453684261563</v>
       </c>
     </row>
     <row r="80">
@@ -3005,10 +3984,10 @@
         <v>0.6228892726074567</v>
       </c>
       <c r="H80">
-        <v>-0.4205095940553708</v>
+        <v>-0.4296229306767893</v>
       </c>
       <c r="I80">
-        <v>0.2515074393167959</v>
+        <v>0.2379964344476136</v>
       </c>
     </row>
     <row r="81">
@@ -3038,10 +4017,10 @@
         <v>0.07118266288120408</v>
       </c>
       <c r="H81">
-        <v>0.1382453218045925</v>
+        <v>0.126193033927761</v>
       </c>
       <c r="I81">
-        <v>1.759006487044377</v>
+        <v>1.613611012732815</v>
       </c>
     </row>
     <row r="82">
@@ -3071,10 +4050,10 @@
         <v>0.01388748569888324</v>
       </c>
       <c r="H82">
-        <v>0.3756222572866085</v>
+        <v>0.3859126340195999</v>
       </c>
       <c r="I82">
-        <v>2.209887932876863</v>
+        <v>2.225621703435895</v>
       </c>
     </row>
     <row r="83">
@@ -3104,10 +4083,10 @@
         <v>0.9818493285972396</v>
       </c>
       <c r="H83">
-        <v>-0.8034985602774655</v>
+        <v>-0.8468966571305967</v>
       </c>
       <c r="I83">
-        <v>0.8071375161446924</v>
+        <v>0.7955763038991264</v>
       </c>
     </row>
     <row r="84">
@@ -3137,10 +4116,10 @@
         <v>0.4921161866203829</v>
       </c>
       <c r="H84">
-        <v>-1.022838102785377</v>
+        <v>-1.038559087321565</v>
       </c>
       <c r="I84">
-        <v>0.4968156129822929</v>
+        <v>0.5274182481282809</v>
       </c>
     </row>
     <row r="85">
@@ -3170,10 +4149,10 @@
         <v>0.2428635814603371</v>
       </c>
       <c r="H85">
-        <v>-0.3845054548561551</v>
+        <v>-0.2638266670763103</v>
       </c>
       <c r="I85">
-        <v>1.170929174702328</v>
+        <v>1.254368967721135</v>
       </c>
     </row>
     <row r="86">
@@ -3203,10 +4182,10 @@
         <v>0.3836512004677323</v>
       </c>
       <c r="H86">
-        <v>-0.8946333851116295</v>
+        <v>-0.8897996273749877</v>
       </c>
       <c r="I86">
-        <v>0.3580436058466405</v>
+        <v>0.3673949261985546</v>
       </c>
     </row>
     <row r="87">
@@ -3236,10 +4215,10 @@
         <v>0.0622052216519151</v>
       </c>
       <c r="H87">
-        <v>-1.401655587490678</v>
+        <v>-1.351334649167237</v>
       </c>
       <c r="I87">
-        <v>0.01514190748543263</v>
+        <v>0.01353991027879861</v>
       </c>
     </row>
     <row r="88">
@@ -3269,10 +4248,10 @@
         <v>0.5665181571250247</v>
       </c>
       <c r="H88">
-        <v>-0.5033143858273386</v>
+        <v>-0.6459190534240458</v>
       </c>
       <c r="I88">
-        <v>0.9283960365373308</v>
+        <v>0.9950262694502696</v>
       </c>
     </row>
     <row r="89">
@@ -3302,10 +4281,10 @@
         <v>0.08874797797433839</v>
       </c>
       <c r="H89">
-        <v>-1.77650313269583</v>
+        <v>-1.784380427069038</v>
       </c>
       <c r="I89">
-        <v>0.1099384844683234</v>
+        <v>0.1368682417177456</v>
       </c>
     </row>
     <row r="90">
@@ -3335,10 +4314,10 @@
         <v>0.6805762752103817</v>
       </c>
       <c r="H90">
-        <v>-2.337708385121676</v>
+        <v>-2.32992515797036</v>
       </c>
       <c r="I90">
-        <v>1.494327743510744</v>
+        <v>1.595742731937204</v>
       </c>
     </row>
     <row r="91">
@@ -3368,10 +4347,10 @@
         <v>0.0171047475372586</v>
       </c>
       <c r="H91">
-        <v>0.03452454519930332</v>
+        <v>0.02944091275184552</v>
       </c>
       <c r="I91">
-        <v>0.4853486679163333</v>
+        <v>0.4880643081153995</v>
       </c>
     </row>
     <row r="92">
@@ -3401,10 +4380,10 @@
         <v>0.6294282350164404</v>
       </c>
       <c r="H92">
-        <v>-0.1394447162848179</v>
+        <v>-0.1233752667412616</v>
       </c>
       <c r="I92">
-        <v>0.2565184000887056</v>
+        <v>0.2512473549094</v>
       </c>
     </row>
     <row r="93">
@@ -3434,10 +4413,10 @@
         <v>0.3701775981872214</v>
       </c>
       <c r="H93">
-        <v>-0.5526898196041307</v>
+        <v>-0.530613310006274</v>
       </c>
       <c r="I93">
-        <v>0.1855472989589905</v>
+        <v>0.2158855366141342</v>
       </c>
     </row>
     <row r="94">
@@ -3467,10 +4446,10 @@
         <v>0.139803381922805</v>
       </c>
       <c r="H94">
-        <v>-0.5472319772728955</v>
+        <v>-0.5298817305154071</v>
       </c>
       <c r="I94">
-        <v>0.0552227649414335</v>
+        <v>0.08992892225687792</v>
       </c>
     </row>
     <row r="95">
@@ -3500,10 +4479,10 @@
         <v>0.6624447581429929</v>
       </c>
       <c r="H95">
-        <v>-0.1805359711526181</v>
+        <v>-0.1883575395310181</v>
       </c>
       <c r="I95">
-        <v>0.2750952613552468</v>
+        <v>0.3103465862379789</v>
       </c>
     </row>
     <row r="96">
@@ -3533,10 +4512,10 @@
         <v>0.5786196890687467</v>
       </c>
       <c r="H96">
-        <v>-0.3149813788461248</v>
+        <v>-0.3265829290471354</v>
       </c>
       <c r="I96">
-        <v>0.1621926726996425</v>
+        <v>0.189440859910058</v>
       </c>
     </row>
     <row r="97">
@@ -3566,10 +4545,10 @@
         <v>0.1127892657152508</v>
       </c>
       <c r="H97">
-        <v>-0.1437654873348643</v>
+        <v>-0.05384290292028718</v>
       </c>
       <c r="I97">
-        <v>0.8791652138308792</v>
+        <v>0.8940215039620572</v>
       </c>
     </row>
     <row r="98">
@@ -3599,10 +4578,10 @@
         <v>0.2308651827991921</v>
       </c>
       <c r="H98">
-        <v>-0.1817514105377187</v>
+        <v>-0.1435477302144261</v>
       </c>
       <c r="I98">
-        <v>0.7338935942432976</v>
+        <v>0.742717485758139</v>
       </c>
     </row>
     <row r="99">
@@ -3632,10 +4611,10 @@
         <v>0.6981069150025276</v>
       </c>
       <c r="H99">
-        <v>-0.3719236324210879</v>
+        <v>-0.367045117499148</v>
       </c>
       <c r="I99">
-        <v>0.2470788544926675</v>
+        <v>0.2831941820965727</v>
       </c>
     </row>
     <row r="100">
@@ -3665,10 +4644,10 @@
         <v>0.07211603824108859</v>
       </c>
       <c r="H100">
-        <v>0.1326708745093426</v>
+        <v>0.1765639377626398</v>
       </c>
       <c r="I100">
-        <v>1.734103377981928</v>
+        <v>1.681912618007223</v>
       </c>
     </row>
     <row r="101">
@@ -3698,10 +4677,10 @@
         <v>0.02751146176058817</v>
       </c>
       <c r="H101">
-        <v>0.2006598797179951</v>
+        <v>0.2267108023023583</v>
       </c>
       <c r="I101">
-        <v>2.209674662506051</v>
+        <v>2.097315315184563</v>
       </c>
     </row>
     <row r="102">
@@ -3731,10 +4710,10 @@
         <v>0.7534917579778402</v>
       </c>
       <c r="H102">
-        <v>-0.6268925503358652</v>
+        <v>-0.7018766702102054</v>
       </c>
       <c r="I102">
-        <v>0.9765774990234576</v>
+        <v>0.9630794658530171</v>
       </c>
     </row>
     <row r="103">
@@ -3764,10 +4743,10 @@
         <v>0.5307703167747249</v>
       </c>
       <c r="H103">
-        <v>-1.108570073099137</v>
+        <v>-1.018466260982793</v>
       </c>
       <c r="I103">
-        <v>0.5199248109342673</v>
+        <v>0.5300470310307088</v>
       </c>
     </row>
     <row r="104">
@@ -3797,10 +4776,10 @@
         <v>0.242025881918261</v>
       </c>
       <c r="H104">
-        <v>-0.2885218081969568</v>
+        <v>-0.4019500625167826</v>
       </c>
       <c r="I104">
-        <v>1.205745716470553</v>
+        <v>1.297772707873737</v>
       </c>
     </row>
     <row r="105">
@@ -3830,10 +4809,10 @@
         <v>0.5492871213138103</v>
       </c>
       <c r="H105">
-        <v>-0.8276153374484838</v>
+        <v>-0.8478385752598845</v>
       </c>
       <c r="I105">
-        <v>0.4110555547650871</v>
+        <v>0.3616001262894699</v>
       </c>
     </row>
     <row r="106">
@@ -3863,10 +4842,10 @@
         <v>0.0473281590668292</v>
       </c>
       <c r="H106">
-        <v>-1.450199929989077</v>
+        <v>-1.418009751638822</v>
       </c>
       <c r="I106">
-        <v>0.04438631459464637</v>
+        <v>-0.03258513390303176</v>
       </c>
     </row>
     <row r="107">
@@ -3896,10 +4875,10 @@
         <v>0.7523725831091722</v>
       </c>
       <c r="H107">
-        <v>-0.8631170300908456</v>
+        <v>-0.9875966512742398</v>
       </c>
       <c r="I107">
-        <v>0.6920423953104837</v>
+        <v>0.6735680927635478</v>
       </c>
     </row>
     <row r="108">
@@ -3929,10 +4908,10 @@
         <v>0.3504003569843512</v>
       </c>
       <c r="H108">
-        <v>-1.248070648095067</v>
+        <v>-1.313315865863578</v>
       </c>
       <c r="I108">
-        <v>0.4948130190546234</v>
+        <v>0.4137953462140581</v>
       </c>
     </row>
     <row r="109">
@@ -3962,10 +4941,10 @@
         <v>0.6346988782055155</v>
       </c>
       <c r="H109">
-        <v>-2.439194963055713</v>
+        <v>-2.437460196629877</v>
       </c>
       <c r="I109">
-        <v>1.352623967556079</v>
+        <v>1.407165274905132</v>
       </c>
     </row>
     <row r="110">
@@ -3995,10 +4974,10 @@
         <v>0.01974869830851809</v>
       </c>
       <c r="H110">
-        <v>0.05358797731380294</v>
+        <v>0.02978969450725753</v>
       </c>
       <c r="I110">
-        <v>0.467126339333513</v>
+        <v>0.489124140443395</v>
       </c>
     </row>
     <row r="111">
@@ -4028,10 +5007,10 @@
         <v>0.6286705771373422</v>
       </c>
       <c r="H111">
-        <v>-0.1429771450232186</v>
+        <v>-0.1553128179048896</v>
       </c>
       <c r="I111">
-        <v>0.2442984484184534</v>
+        <v>0.2685148109302758</v>
       </c>
     </row>
     <row r="112">
@@ -4061,10 +5040,10 @@
         <v>0.3483975151156963</v>
       </c>
       <c r="H112">
-        <v>-0.5133644522027708</v>
+        <v>-0.52054561397513</v>
       </c>
       <c r="I112">
-        <v>0.1850851447463366</v>
+        <v>0.1721453550390795</v>
       </c>
     </row>
     <row r="113">
@@ -4094,10 +5073,10 @@
         <v>0.1370219668729625</v>
       </c>
       <c r="H113">
-        <v>-0.5390866180758546</v>
+        <v>-0.542665934574395</v>
       </c>
       <c r="I113">
-        <v>0.0743236297414465</v>
+        <v>0.04560264121557969</v>
       </c>
     </row>
     <row r="114">
@@ -4127,10 +5106,10 @@
         <v>0.8483975000063533</v>
       </c>
       <c r="H114">
-        <v>-0.1856301210960243</v>
+        <v>-0.2218630059654358</v>
       </c>
       <c r="I114">
-        <v>0.2510297212273121</v>
+        <v>0.2640175889126602</v>
       </c>
     </row>
     <row r="115">
@@ -4160,10 +5139,10 @@
         <v>0.6591620961543974</v>
       </c>
       <c r="H115">
-        <v>-0.3189093190922731</v>
+        <v>-0.3243995875618235</v>
       </c>
       <c r="I115">
-        <v>0.2212769027764263</v>
+        <v>0.1772254771819326</v>
       </c>
     </row>
     <row r="116">
@@ -4193,10 +5172,10 @@
         <v>0.1874080374019437</v>
       </c>
       <c r="H116">
-        <v>-0.1363431195688723</v>
+        <v>-0.1369490432228248</v>
       </c>
       <c r="I116">
-        <v>0.829137252619777</v>
+        <v>0.7751567897546661</v>
       </c>
     </row>
     <row r="117">
@@ -4226,10 +5205,10 @@
         <v>0.3007686223458441</v>
       </c>
       <c r="H117">
-        <v>-0.2294805567666325</v>
+        <v>-0.192365016174924</v>
       </c>
       <c r="I117">
-        <v>0.7443872444165893</v>
+        <v>0.7214176267529373</v>
       </c>
     </row>
     <row r="118">
@@ -4259,10 +5238,10 @@
         <v>0.6717673897353145</v>
       </c>
       <c r="H118">
-        <v>-0.4014850321883327</v>
+        <v>-0.4378338193059346</v>
       </c>
       <c r="I118">
-        <v>0.291101973978087</v>
+        <v>0.2515514714750376</v>
       </c>
     </row>
   </sheetData>

--- a/cumulative_results.xlsx
+++ b/cumulative_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +471,10 @@
         <v>0.04964264048460895</v>
       </c>
       <c r="H2">
-        <v>0.2862340954906926</v>
+        <v>0.2834120504218763</v>
       </c>
       <c r="I2">
-        <v>1.648967338964327</v>
+        <v>1.710330982814986</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -519,10 +519,10 @@
         <v>0.6028693164558701</v>
       </c>
       <c r="H3">
-        <v>-0.3856633561857863</v>
+        <v>-0.3797637711929017</v>
       </c>
       <c r="I3">
-        <v>0.7109394422838996</v>
+        <v>0.6949390264494599</v>
       </c>
       <c r="J3">
         <v>16</v>
@@ -567,10 +567,10 @@
         <v>0.386240323001902</v>
       </c>
       <c r="H4">
-        <v>-0.75872991513925</v>
+        <v>-0.7918839605521191</v>
       </c>
       <c r="I4">
-        <v>0.2683497172284998</v>
+        <v>0.3300495205443998</v>
       </c>
       <c r="J4">
         <v>16</v>
@@ -615,10 +615,10 @@
         <v>0.03659352146781997</v>
       </c>
       <c r="H5">
-        <v>-1.01890985232992</v>
+        <v>-1.059810369144379</v>
       </c>
       <c r="I5">
-        <v>0.04640187659852996</v>
+        <v>0.004334489455683389</v>
       </c>
       <c r="J5">
         <v>16</v>
@@ -663,10 +663,10 @@
         <v>0.02865195558438659</v>
       </c>
       <c r="H6">
-        <v>0.006562047272790326</v>
+        <v>0.01185891213076445</v>
       </c>
       <c r="I6">
-        <v>0.4529963286423255</v>
+        <v>0.4510146604231831</v>
       </c>
       <c r="J6">
         <v>16</v>
@@ -711,10 +711,10 @@
         <v>0.9448898796854626</v>
       </c>
       <c r="H7">
-        <v>-0.209186906951652</v>
+        <v>-0.1881801200518049</v>
       </c>
       <c r="I7">
-        <v>0.216223496922463</v>
+        <v>0.2278871344841083</v>
       </c>
       <c r="J7">
         <v>16</v>
@@ -759,10 +759,10 @@
         <v>0.2932670504991191</v>
       </c>
       <c r="H8">
-        <v>-0.5420026229208045</v>
+        <v>-0.5774358585009145</v>
       </c>
       <c r="I8">
-        <v>0.2049381797783333</v>
+        <v>0.1909169310499046</v>
       </c>
       <c r="J8">
         <v>16</v>
@@ -807,10 +807,10 @@
         <v>0.07750829082893188</v>
       </c>
       <c r="H9">
-        <v>-0.594090219936199</v>
+        <v>-0.6008543696275791</v>
       </c>
       <c r="I9">
-        <v>0.06775443910799996</v>
+        <v>0.02102239884936347</v>
       </c>
       <c r="J9">
         <v>16</v>
@@ -855,10 +855,10 @@
         <v>0.817717335487248</v>
       </c>
       <c r="H10">
-        <v>-0.2078895971868763</v>
+        <v>-0.1987530278136226</v>
       </c>
       <c r="I10">
-        <v>0.2758790143920343</v>
+        <v>0.2402125283496313</v>
       </c>
       <c r="J10">
         <v>16</v>
@@ -903,10 +903,10 @@
         <v>0.5634618251164623</v>
       </c>
       <c r="H11">
-        <v>-0.3303061346749652</v>
+        <v>-0.3441025997747367</v>
       </c>
       <c r="I11">
-        <v>0.1685190126524619</v>
+        <v>0.212602855966769</v>
       </c>
       <c r="J11">
         <v>16</v>
@@ -951,10 +951,10 @@
         <v>0.2400809627951311</v>
       </c>
       <c r="H12">
-        <v>-0.185218066585658</v>
+        <v>-0.2094689139795239</v>
       </c>
       <c r="I12">
-        <v>0.7447657300540489</v>
+        <v>0.7080914543682141</v>
       </c>
       <c r="J12">
         <v>16</v>
@@ -999,10 +999,10 @@
         <v>0.3064575649738183</v>
       </c>
       <c r="H13">
-        <v>-0.2038332389873086</v>
+        <v>-0.2118972728836294</v>
       </c>
       <c r="I13">
-        <v>0.7191129042648454</v>
+        <v>0.6859994500633758</v>
       </c>
       <c r="J13">
         <v>16</v>
@@ -1047,10 +1047,10 @@
         <v>0.6054857849294826</v>
       </c>
       <c r="H14">
-        <v>-0.4549225709284624</v>
+        <v>-0.4219594073253026</v>
       </c>
       <c r="I14">
-        <v>0.2208791779373557</v>
+        <v>0.3043565858790745</v>
       </c>
       <c r="J14">
         <v>16</v>
@@ -1095,10 +1095,10 @@
         <v>0.05812185553694306</v>
       </c>
       <c r="H15">
-        <v>0.3503323524768479</v>
+        <v>0.2845412020792215</v>
       </c>
       <c r="I15">
-        <v>1.678295774196313</v>
+        <v>1.688628675083661</v>
       </c>
       <c r="J15">
         <v>18</v>
@@ -1152,10 +1152,10 @@
         <v>0.004307415602908025</v>
       </c>
       <c r="H16">
-        <v>0.2954894333941566</v>
+        <v>0.3423474667853794</v>
       </c>
       <c r="I16">
-        <v>1.85059744763241</v>
+        <v>1.836228693313179</v>
       </c>
       <c r="J16">
         <v>18</v>
@@ -1209,10 +1209,10 @@
         <v>0.5155238728790634</v>
       </c>
       <c r="H17">
-        <v>-0.7993290502379676</v>
+        <v>-0.8217424239781287</v>
       </c>
       <c r="I17">
-        <v>0.3574556335416999</v>
+        <v>0.373917330041954</v>
       </c>
       <c r="J17">
         <v>18</v>
@@ -1266,10 +1266,10 @@
         <v>0.678039927149849</v>
       </c>
       <c r="H18">
-        <v>-0.65716948170628</v>
+        <v>-0.6460974383511378</v>
       </c>
       <c r="I18">
-        <v>0.4342156524684461</v>
+        <v>0.4299232990056411</v>
       </c>
       <c r="J18">
         <v>18</v>
@@ -1323,10 +1323,10 @@
         <v>0.4090643909381595</v>
       </c>
       <c r="H19">
-        <v>-0.8610621813422327</v>
+        <v>-0.7894788144458892</v>
       </c>
       <c r="I19">
-        <v>0.3128270876381522</v>
+        <v>0.3158699429736271</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -1380,10 +1380,10 @@
         <v>0.03279137701991269</v>
       </c>
       <c r="H20">
-        <v>-1.584011153275394</v>
+        <v>-1.566691695612505</v>
       </c>
       <c r="I20">
-        <v>-0.03264317216036437</v>
+        <v>-0.08708095587187574</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -1437,10 +1437,10 @@
         <v>0.02760057400643724</v>
       </c>
       <c r="H21">
-        <v>0.02458238190772083</v>
+        <v>0.03022460932315688</v>
       </c>
       <c r="I21">
-        <v>0.4529090083278975</v>
+        <v>0.4732341249810488</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -1494,10 +1494,10 @@
         <v>0.6799018601661131</v>
       </c>
       <c r="H22">
-        <v>-0.1604459511345854</v>
+        <v>-0.1363081466817822</v>
       </c>
       <c r="I22">
-        <v>0.2454738191131656</v>
+        <v>0.2407241054335687</v>
       </c>
       <c r="J22">
         <v>18</v>
@@ -1551,10 +1551,10 @@
         <v>0.3882036853072163</v>
       </c>
       <c r="H23">
-        <v>-0.4762321292867966</v>
+        <v>-0.5220301717860029</v>
       </c>
       <c r="I23">
-        <v>0.2121530345600002</v>
+        <v>0.2266035074830791</v>
       </c>
       <c r="J23">
         <v>18</v>
@@ -1608,10 +1608,10 @@
         <v>0.1670040167557344</v>
       </c>
       <c r="H24">
-        <v>-0.5390743257483683</v>
+        <v>-0.5366131893577966</v>
       </c>
       <c r="I24">
-        <v>0.08497938811892621</v>
+        <v>0.1201307121267209</v>
       </c>
       <c r="J24">
         <v>18</v>
@@ -1665,10 +1665,10 @@
         <v>0.9928509467147366</v>
       </c>
       <c r="H25">
-        <v>-0.2215532296616132</v>
+        <v>-0.2524642001192443</v>
       </c>
       <c r="I25">
-        <v>0.2444659215465013</v>
+        <v>0.230783945469051</v>
       </c>
       <c r="J25">
         <v>18</v>
@@ -1722,10 +1722,10 @@
         <v>0.789229887055815</v>
       </c>
       <c r="H26">
-        <v>-0.2844730655598888</v>
+        <v>-0.2919725654247182</v>
       </c>
       <c r="I26">
-        <v>0.198991600251633</v>
+        <v>0.223047941305191</v>
       </c>
       <c r="J26">
         <v>18</v>
@@ -1779,10 +1779,10 @@
         <v>0.325594064051256</v>
       </c>
       <c r="H27">
-        <v>-0.2821687751094802</v>
+        <v>-0.2615766894516497</v>
       </c>
       <c r="I27">
-        <v>0.688194791328801</v>
+        <v>0.7343499209923907</v>
       </c>
       <c r="J27">
         <v>18</v>
@@ -1836,10 +1836,10 @@
         <v>0.4106991278636435</v>
       </c>
       <c r="H28">
-        <v>-0.2407674385682356</v>
+        <v>-0.2948680693498724</v>
       </c>
       <c r="I28">
-        <v>0.6128732183646094</v>
+        <v>0.7000886864759898</v>
       </c>
       <c r="J28">
         <v>18</v>
@@ -1893,10 +1893,10 @@
         <v>0.4271125636813243</v>
       </c>
       <c r="H29">
-        <v>-0.4625301030330881</v>
+        <v>-0.4840510266555417</v>
       </c>
       <c r="I29">
-        <v>0.1911731166775313</v>
+        <v>0.198574693034343</v>
       </c>
       <c r="J29">
         <v>18</v>
@@ -1950,10 +1950,10 @@
         <v>0.06252292722425552</v>
       </c>
       <c r="H30">
-        <v>0.3125829819526447</v>
+        <v>0.2137330607612459</v>
       </c>
       <c r="I30">
-        <v>1.609924375241359</v>
+        <v>1.658602429560259</v>
       </c>
       <c r="J30">
         <v>19</v>
@@ -2007,10 +2007,10 @@
         <v>0.004849334745694508</v>
       </c>
       <c r="H31">
-        <v>0.33032748846421</v>
+        <v>0.3680090565890101</v>
       </c>
       <c r="I31">
-        <v>2.190418517249494</v>
+        <v>2.044476804175094</v>
       </c>
       <c r="J31">
         <v>19</v>
@@ -2064,10 +2064,10 @@
         <v>0.9186748126778145</v>
       </c>
       <c r="H32">
-        <v>-0.734644387179208</v>
+        <v>-0.693494691170524</v>
       </c>
       <c r="I32">
-        <v>0.6831429284207239</v>
+        <v>0.6586925022636354</v>
       </c>
       <c r="J32">
         <v>19</v>
@@ -2121,10 +2121,10 @@
         <v>0.4481234189980438</v>
       </c>
       <c r="H33">
-        <v>-0.7964892139021089</v>
+        <v>-0.7475689974832084</v>
       </c>
       <c r="I33">
-        <v>0.3066575248178697</v>
+        <v>0.3335766308591917</v>
       </c>
       <c r="J33">
         <v>19</v>
@@ -2178,10 +2178,10 @@
         <v>0.3671602410124577</v>
       </c>
       <c r="H34">
-        <v>-0.8396189919628324</v>
+        <v>-0.8877377064802509</v>
       </c>
       <c r="I34">
-        <v>0.2812554753050258</v>
+        <v>0.3115219482590851</v>
       </c>
       <c r="J34">
         <v>19</v>
@@ -2235,10 +2235,10 @@
         <v>0.7668946240781603</v>
       </c>
       <c r="H35">
-        <v>-0.7594545357787538</v>
+        <v>-0.744452479459231</v>
       </c>
       <c r="I35">
-        <v>0.5402843201127598</v>
+        <v>0.5511582570052165</v>
       </c>
       <c r="J35">
         <v>19</v>
@@ -2292,10 +2292,10 @@
         <v>0.03108283570422055</v>
       </c>
       <c r="H36">
-        <v>-1.738115458740259</v>
+        <v>-1.688749101184015</v>
       </c>
       <c r="I36">
-        <v>-0.04179908567843431</v>
+        <v>-0.09346320331169729</v>
       </c>
       <c r="J36">
         <v>19</v>
@@ -2349,10 +2349,10 @@
         <v>0.02175506015455142</v>
       </c>
       <c r="H37">
-        <v>0.01115372992588829</v>
+        <v>0.03604945668322138</v>
       </c>
       <c r="I37">
-        <v>0.4533302956142493</v>
+        <v>0.4662316548215919</v>
       </c>
       <c r="J37">
         <v>19</v>
@@ -2406,10 +2406,10 @@
         <v>0.6977696725009876</v>
       </c>
       <c r="H38">
-        <v>-0.1712367182825224</v>
+        <v>-0.1633368304452101</v>
       </c>
       <c r="I38">
-        <v>0.2455096365025987</v>
+        <v>0.230800896857949</v>
       </c>
       <c r="J38">
         <v>19</v>
@@ -2463,10 +2463,10 @@
         <v>0.3802621071032635</v>
       </c>
       <c r="H39">
-        <v>-0.5002049795210112</v>
+        <v>-0.5407540741261334</v>
       </c>
       <c r="I39">
-        <v>0.191529337971982</v>
+        <v>0.2049409166018693</v>
       </c>
       <c r="J39">
         <v>19</v>
@@ -2520,10 +2520,10 @@
         <v>0.1410514875989229</v>
       </c>
       <c r="H40">
-        <v>-0.5455031111243596</v>
+        <v>-0.5496273570798524</v>
       </c>
       <c r="I40">
-        <v>0.07736329385446518</v>
+        <v>0.06996570317065998</v>
       </c>
       <c r="J40">
         <v>19</v>
@@ -2577,10 +2577,10 @@
         <v>0.8959805637514762</v>
       </c>
       <c r="H41">
-        <v>-0.2028372948973302</v>
+        <v>-0.2242934259585204</v>
       </c>
       <c r="I41">
-        <v>0.2493083657628704</v>
+        <v>0.2682195949888659</v>
       </c>
       <c r="J41">
         <v>19</v>
@@ -2634,10 +2634,10 @@
         <v>0.68815076450387</v>
       </c>
       <c r="H42">
-        <v>-0.3218395372746429</v>
+        <v>-0.3293431498064522</v>
       </c>
       <c r="I42">
-        <v>0.2074403738074544</v>
+        <v>0.2180059070374321</v>
       </c>
       <c r="J42">
         <v>19</v>
@@ -2691,10 +2691,10 @@
         <v>0.2290822980262702</v>
       </c>
       <c r="H43">
-        <v>-0.1985776008259142</v>
+        <v>-0.1532693840751618</v>
       </c>
       <c r="I43">
-        <v>0.765280334170213</v>
+        <v>0.76705513253247</v>
       </c>
       <c r="J43">
         <v>19</v>
@@ -2748,10 +2748,10 @@
         <v>0.2501239398540214</v>
       </c>
       <c r="H44">
-        <v>-0.1785622044193332</v>
+        <v>-0.1700613969589585</v>
       </c>
       <c r="I44">
-        <v>0.7211604152695491</v>
+        <v>0.7246833565176921</v>
       </c>
       <c r="J44">
         <v>19</v>
@@ -2805,10 +2805,10 @@
         <v>0.4913382811027023</v>
       </c>
       <c r="H45">
-        <v>-0.4165754255433853</v>
+        <v>-0.412485709777026</v>
       </c>
       <c r="I45">
-        <v>0.2152630253709437</v>
+        <v>0.2035585290045968</v>
       </c>
       <c r="J45">
         <v>19</v>
@@ -2862,10 +2862,10 @@
         <v>0.06297009607337689</v>
       </c>
       <c r="H46">
-        <v>0.155808429375246</v>
+        <v>0.2986598028976839</v>
       </c>
       <c r="I46">
-        <v>1.622986304153297</v>
+        <v>1.629211434857524</v>
       </c>
     </row>
     <row r="47">
@@ -2895,10 +2895,10 @@
         <v>0.005049185733957656</v>
       </c>
       <c r="H47">
-        <v>0.4079785539316004</v>
+        <v>0.2653809009916422</v>
       </c>
       <c r="I47">
-        <v>2.027418079898665</v>
+        <v>1.984193583738628</v>
       </c>
     </row>
     <row r="48">
@@ -2928,10 +2928,10 @@
         <v>0.8637447796552011</v>
       </c>
       <c r="H48">
-        <v>-0.7665783931071387</v>
+        <v>-0.8982748920281581</v>
       </c>
       <c r="I48">
-        <v>0.6853448030848063</v>
+        <v>0.7412443534161096</v>
       </c>
     </row>
     <row r="49">
@@ -2961,10 +2961,10 @@
         <v>0.7142314729337769</v>
       </c>
       <c r="H49">
-        <v>-0.6142831104819919</v>
+        <v>-0.4954934610532872</v>
       </c>
       <c r="I49">
-        <v>0.7710330737280957</v>
+        <v>0.7356696601534916</v>
       </c>
     </row>
     <row r="50">
@@ -2994,10 +2994,10 @@
         <v>0.409779029170831</v>
       </c>
       <c r="H50">
-        <v>-0.7507291499353248</v>
+        <v>-0.792303563299306</v>
       </c>
       <c r="I50">
-        <v>0.3442006450209224</v>
+        <v>0.3651950463291019</v>
       </c>
     </row>
     <row r="51">
@@ -3027,10 +3027,10 @@
         <v>0.5970401227461903</v>
       </c>
       <c r="H51">
-        <v>-0.8687266060483141</v>
+        <v>-0.8841391112961295</v>
       </c>
       <c r="I51">
-        <v>0.5070316976568988</v>
+        <v>0.5331176113778089</v>
       </c>
     </row>
     <row r="52">
@@ -3060,10 +3060,10 @@
         <v>0.2563739878656627</v>
       </c>
       <c r="H52">
-        <v>-1.103917488190971</v>
+        <v>-1.11267580902433</v>
       </c>
       <c r="I52">
-        <v>0.3163342809448065</v>
+        <v>0.2868962243083319</v>
       </c>
     </row>
     <row r="53">
@@ -3093,10 +3093,10 @@
         <v>0.1452463571798465</v>
       </c>
       <c r="H53">
-        <v>-1.721754345843732</v>
+        <v>-1.870352304635462</v>
       </c>
       <c r="I53">
-        <v>0.264307641549676</v>
+        <v>0.33845646276466</v>
       </c>
     </row>
     <row r="54">
@@ -3126,10 +3126,10 @@
         <v>0.02552106059786067</v>
       </c>
       <c r="H54">
-        <v>0.01868847809710864</v>
+        <v>0.01683720703488287</v>
       </c>
       <c r="I54">
-        <v>0.4689854913270295</v>
+        <v>0.463454810334081</v>
       </c>
     </row>
     <row r="55">
@@ -3159,10 +3159,10 @@
         <v>0.7566432838732358</v>
       </c>
       <c r="H55">
-        <v>-0.1473158358487471</v>
+        <v>-0.1701932528374098</v>
       </c>
       <c r="I55">
-        <v>0.2490705241976982</v>
+        <v>0.2279255872861863</v>
       </c>
     </row>
     <row r="56">
@@ -3192,10 +3192,10 @@
         <v>0.3049960550506722</v>
       </c>
       <c r="H56">
-        <v>-0.5271390023140043</v>
+        <v>-0.5345250188439093</v>
       </c>
       <c r="I56">
-        <v>0.1900741855111074</v>
+        <v>0.1751483894405875</v>
       </c>
     </row>
     <row r="57">
@@ -3225,10 +3225,10 @@
         <v>0.09608970220299448</v>
       </c>
       <c r="H57">
-        <v>-0.6106246844115909</v>
+        <v>-0.5733178913008012</v>
       </c>
       <c r="I57">
-        <v>0.1150691857279537</v>
+        <v>0.05632603982299498</v>
       </c>
     </row>
     <row r="58">
@@ -3258,10 +3258,10 @@
         <v>0.842306744464044</v>
       </c>
       <c r="H58">
-        <v>-0.2179177176236429</v>
+        <v>-0.2423031895720431</v>
       </c>
       <c r="I58">
-        <v>0.2577271737439232</v>
+        <v>0.2648156129668164</v>
       </c>
     </row>
     <row r="59">
@@ -3291,10 +3291,10 @@
         <v>0.7441152366941269</v>
       </c>
       <c r="H59">
-        <v>-0.273389972613713</v>
+        <v>-0.2945602548646099</v>
       </c>
       <c r="I59">
-        <v>0.2038469268489081</v>
+        <v>0.2341668538710682</v>
       </c>
     </row>
     <row r="60">
@@ -3324,10 +3324,10 @@
         <v>0.235145350722716</v>
       </c>
       <c r="H60">
-        <v>-0.1783973998305011</v>
+        <v>-0.2129792590129806</v>
       </c>
       <c r="I60">
-        <v>0.7375508758310919</v>
+        <v>0.7971000428529461</v>
       </c>
     </row>
     <row r="61">
@@ -3357,10 +3357,10 @@
         <v>0.2951611497403613</v>
       </c>
       <c r="H61">
-        <v>-0.2450139390462626</v>
+        <v>-0.2227848257188881</v>
       </c>
       <c r="I61">
-        <v>0.7419979674033709</v>
+        <v>0.6232356320231051</v>
       </c>
     </row>
     <row r="62">
@@ -3390,10 +3390,10 @@
         <v>0.6272295597475857</v>
       </c>
       <c r="H62">
-        <v>-0.391308173998236</v>
+        <v>-0.3990319561571715</v>
       </c>
       <c r="I62">
-        <v>0.2162879109923399</v>
+        <v>0.2562634182084488</v>
       </c>
     </row>
     <row r="63">
@@ -3423,10 +3423,10 @@
         <v>0.06795618094415351</v>
       </c>
       <c r="H63">
-        <v>0.2670468805464514</v>
+        <v>0.2323931087977209</v>
       </c>
       <c r="I63">
-        <v>1.648658946821268</v>
+        <v>1.576632022519839</v>
       </c>
     </row>
     <row r="64">
@@ -3456,10 +3456,10 @@
         <v>0.009074639437384492</v>
       </c>
       <c r="H64">
-        <v>0.4156365575662241</v>
+        <v>0.3128768293263516</v>
       </c>
       <c r="I64">
-        <v>2.213695008096214</v>
+        <v>2.138696556873741</v>
       </c>
     </row>
     <row r="65">
@@ -3489,10 +3489,10 @@
         <v>0.5346110040162471</v>
       </c>
       <c r="H65">
-        <v>-1.018417461276735</v>
+        <v>-1.078233440312897</v>
       </c>
       <c r="I65">
-        <v>0.5921911705357474</v>
+        <v>0.619058509602279</v>
       </c>
     </row>
     <row r="66">
@@ -3522,10 +3522,10 @@
         <v>0.9877876072461564</v>
       </c>
       <c r="H66">
-        <v>-0.7733914802293201</v>
+        <v>-0.7695640373869607</v>
       </c>
       <c r="I66">
-        <v>0.7059403408282521</v>
+        <v>0.6675427985893866</v>
       </c>
     </row>
     <row r="67">
@@ -3555,10 +3555,10 @@
         <v>0.7562129867133393</v>
       </c>
       <c r="H67">
-        <v>-0.5092390612477363</v>
+        <v>-0.5166593623343072</v>
       </c>
       <c r="I67">
-        <v>0.7362541185173312</v>
+        <v>0.7407831192271974</v>
       </c>
     </row>
     <row r="68">
@@ -3588,10 +3588,10 @@
         <v>0.4371199836563215</v>
       </c>
       <c r="H68">
-        <v>-0.954693347202311</v>
+        <v>-0.8950902909756037</v>
       </c>
       <c r="I68">
-        <v>0.3965136817114013</v>
+        <v>0.3932120204458459</v>
       </c>
     </row>
     <row r="69">
@@ -3621,10 +3621,10 @@
         <v>0.265975840793027</v>
       </c>
       <c r="H69">
-        <v>-1.059301475802795</v>
+        <v>-1.079929917376834</v>
       </c>
       <c r="I69">
-        <v>0.2695508167836265</v>
+        <v>0.2910029782468126</v>
       </c>
     </row>
     <row r="70">
@@ -3654,10 +3654,10 @@
         <v>0.6398161157351145</v>
       </c>
       <c r="H70">
-        <v>-1.109858240496404</v>
+        <v>-1.07898417987663</v>
       </c>
       <c r="I70">
-        <v>0.6625868018510094</v>
+        <v>0.7463088327471763</v>
       </c>
     </row>
     <row r="71">
@@ -3687,10 +3687,10 @@
         <v>0.1388774323826338</v>
       </c>
       <c r="H71">
-        <v>-1.839443780815663</v>
+        <v>-1.828140024691209</v>
       </c>
       <c r="I71">
-        <v>0.1600168304493866</v>
+        <v>0.3069567228086447</v>
       </c>
     </row>
     <row r="72">
@@ -3720,10 +3720,10 @@
         <v>0.02634303725309236</v>
       </c>
       <c r="H72">
-        <v>0.04228531468250928</v>
+        <v>0.03596144205160846</v>
       </c>
       <c r="I72">
-        <v>0.4777474124495106</v>
+        <v>0.4639996784794094</v>
       </c>
     </row>
     <row r="73">
@@ -3753,10 +3753,10 @@
         <v>0.6528467733077792</v>
       </c>
       <c r="H73">
-        <v>-0.1528559584179251</v>
+        <v>-0.1743682744101016</v>
       </c>
       <c r="I73">
-        <v>0.2520196990402656</v>
+        <v>0.274024154047829</v>
       </c>
     </row>
     <row r="74">
@@ -3786,10 +3786,10 @@
         <v>0.4309713622733931</v>
       </c>
       <c r="H74">
-        <v>-0.498016461233066</v>
+        <v>-0.5227924949496681</v>
       </c>
       <c r="I74">
-        <v>0.2349578631451038</v>
+        <v>0.2049527346144591</v>
       </c>
     </row>
     <row r="75">
@@ -3819,10 +3819,10 @@
         <v>0.1437130633060289</v>
       </c>
       <c r="H75">
-        <v>-0.5570215821223329</v>
+        <v>-0.5533981237727951</v>
       </c>
       <c r="I75">
-        <v>0.08069249897980944</v>
+        <v>0.075477905957581</v>
       </c>
     </row>
     <row r="76">
@@ -3852,10 +3852,10 @@
         <v>0.7620249842309224</v>
       </c>
       <c r="H76">
-        <v>-0.2131875601963859</v>
+        <v>-0.188688170967089</v>
       </c>
       <c r="I76">
-        <v>0.2929422996964876</v>
+        <v>0.269750450751371</v>
       </c>
     </row>
     <row r="77">
@@ -3885,10 +3885,10 @@
         <v>0.8451542964897799</v>
       </c>
       <c r="H77">
-        <v>-0.294924092274174</v>
+        <v>-0.2991940213788358</v>
       </c>
       <c r="I77">
-        <v>0.2706789530235086</v>
+        <v>0.234207343157654</v>
       </c>
     </row>
     <row r="78">
@@ -3918,10 +3918,10 @@
         <v>0.1523339419669436</v>
       </c>
       <c r="H78">
-        <v>-0.1097243358231692</v>
+        <v>-0.1065578596107732</v>
       </c>
       <c r="I78">
-        <v>0.8663762112352434</v>
+        <v>0.7964343676736534</v>
       </c>
     </row>
     <row r="79">
@@ -3951,10 +3951,10 @@
         <v>0.1937140941682198</v>
       </c>
       <c r="H79">
-        <v>-0.1773560147948503</v>
+        <v>-0.1316507814749432</v>
       </c>
       <c r="I79">
-        <v>0.8177453684261563</v>
+        <v>0.7428793033540159</v>
       </c>
     </row>
     <row r="80">
@@ -3984,10 +3984,10 @@
         <v>0.6228892726074567</v>
       </c>
       <c r="H80">
-        <v>-0.4296229306767893</v>
+        <v>-0.4258892403898292</v>
       </c>
       <c r="I80">
-        <v>0.2379964344476136</v>
+        <v>0.2322929870432801</v>
       </c>
     </row>
     <row r="81">
@@ -4017,10 +4017,10 @@
         <v>0.07118266288120408</v>
       </c>
       <c r="H81">
-        <v>0.126193033927761</v>
+        <v>0.2673111094425235</v>
       </c>
       <c r="I81">
-        <v>1.613611012732815</v>
+        <v>1.719485347296794</v>
       </c>
     </row>
     <row r="82">
@@ -4050,10 +4050,10 @@
         <v>0.01388748569888324</v>
       </c>
       <c r="H82">
-        <v>0.3859126340195999</v>
+        <v>0.222364395750175</v>
       </c>
       <c r="I82">
-        <v>2.225621703435895</v>
+        <v>2.158108299591714</v>
       </c>
     </row>
     <row r="83">
@@ -4083,10 +4083,10 @@
         <v>0.9818493285972396</v>
       </c>
       <c r="H83">
-        <v>-0.8468966571305967</v>
+        <v>-0.8557526486193839</v>
       </c>
       <c r="I83">
-        <v>0.7955763038991264</v>
+        <v>0.8171297744621602</v>
       </c>
     </row>
     <row r="84">
@@ -4116,10 +4116,10 @@
         <v>0.4921161866203829</v>
       </c>
       <c r="H84">
-        <v>-1.038559087321565</v>
+        <v>-1.007918257285262</v>
       </c>
       <c r="I84">
-        <v>0.5274182481282809</v>
+        <v>0.3982341580861368</v>
       </c>
     </row>
     <row r="85">
@@ -4149,10 +4149,10 @@
         <v>0.2428635814603371</v>
       </c>
       <c r="H85">
-        <v>-0.2638266670763103</v>
+        <v>-0.394720525716212</v>
       </c>
       <c r="I85">
-        <v>1.254368967721135</v>
+        <v>1.137778952847658</v>
       </c>
     </row>
     <row r="86">
@@ -4182,10 +4182,10 @@
         <v>0.3836512004677323</v>
       </c>
       <c r="H86">
-        <v>-0.8897996273749877</v>
+        <v>-0.9247136587627589</v>
       </c>
       <c r="I86">
-        <v>0.3673949261985546</v>
+        <v>0.324190129806607</v>
       </c>
     </row>
     <row r="87">
@@ -4215,10 +4215,10 @@
         <v>0.0622052216519151</v>
       </c>
       <c r="H87">
-        <v>-1.351334649167237</v>
+        <v>-1.412294366105705</v>
       </c>
       <c r="I87">
-        <v>0.01353991027879861</v>
+        <v>0.01800030821982512</v>
       </c>
     </row>
     <row r="88">
@@ -4248,10 +4248,10 @@
         <v>0.5665181571250247</v>
       </c>
       <c r="H88">
-        <v>-0.6459190534240458</v>
+        <v>-0.561902816653414</v>
       </c>
       <c r="I88">
-        <v>0.9950262694502696</v>
+        <v>1.05319520517475</v>
       </c>
     </row>
     <row r="89">
@@ -4281,10 +4281,10 @@
         <v>0.08874797797433839</v>
       </c>
       <c r="H89">
-        <v>-1.784380427069038</v>
+        <v>-1.746891627418626</v>
       </c>
       <c r="I89">
-        <v>0.1368682417177456</v>
+        <v>0.1057977920009807</v>
       </c>
     </row>
     <row r="90">
@@ -4314,10 +4314,10 @@
         <v>0.6805762752103817</v>
       </c>
       <c r="H90">
-        <v>-2.32992515797036</v>
+        <v>-2.243477998319585</v>
       </c>
       <c r="I90">
-        <v>1.595742731937204</v>
+        <v>1.334353334209698</v>
       </c>
     </row>
     <row r="91">
@@ -4347,10 +4347,10 @@
         <v>0.0171047475372586</v>
       </c>
       <c r="H91">
-        <v>0.02944091275184552</v>
+        <v>0.03131807964961131</v>
       </c>
       <c r="I91">
-        <v>0.4880643081153995</v>
+        <v>0.4856834178222433</v>
       </c>
     </row>
     <row r="92">
@@ -4380,10 +4380,10 @@
         <v>0.6294282350164404</v>
       </c>
       <c r="H92">
-        <v>-0.1233752667412616</v>
+        <v>-0.1474607811314075</v>
       </c>
       <c r="I92">
-        <v>0.2512473549094</v>
+        <v>0.2749037543227097</v>
       </c>
     </row>
     <row r="93">
@@ -4413,10 +4413,10 @@
         <v>0.3701775981872214</v>
       </c>
       <c r="H93">
-        <v>-0.530613310006274</v>
+        <v>-0.4955892032030743</v>
       </c>
       <c r="I93">
-        <v>0.2158855366141342</v>
+        <v>0.1820975338784321</v>
       </c>
     </row>
     <row r="94">
@@ -4446,10 +4446,10 @@
         <v>0.139803381922805</v>
       </c>
       <c r="H94">
-        <v>-0.5298817305154071</v>
+        <v>-0.5134523786636653</v>
       </c>
       <c r="I94">
-        <v>0.08992892225687792</v>
+        <v>0.08377036447647154</v>
       </c>
     </row>
     <row r="95">
@@ -4479,10 +4479,10 @@
         <v>0.6624447581429929</v>
       </c>
       <c r="H95">
-        <v>-0.1883575395310181</v>
+        <v>-0.1780608891896219</v>
       </c>
       <c r="I95">
-        <v>0.3103465862379789</v>
+        <v>0.2926234428601105</v>
       </c>
     </row>
     <row r="96">
@@ -4512,10 +4512,10 @@
         <v>0.5786196890687467</v>
       </c>
       <c r="H96">
-        <v>-0.3265829290471354</v>
+        <v>-0.3342968566753575</v>
       </c>
       <c r="I96">
-        <v>0.189440859910058</v>
+        <v>0.2221274158816584</v>
       </c>
     </row>
     <row r="97">
@@ -4545,10 +4545,10 @@
         <v>0.1127892657152508</v>
       </c>
       <c r="H97">
-        <v>-0.05384290292028718</v>
+        <v>-0.0671744464590317</v>
       </c>
       <c r="I97">
-        <v>0.8940215039620572</v>
+        <v>0.9136146743299711</v>
       </c>
     </row>
     <row r="98">
@@ -4578,10 +4578,10 @@
         <v>0.2308651827991921</v>
       </c>
       <c r="H98">
-        <v>-0.1435477302144261</v>
+        <v>-0.1526611313382874</v>
       </c>
       <c r="I98">
-        <v>0.742717485758139</v>
+        <v>0.7246578534937453</v>
       </c>
     </row>
     <row r="99">
@@ -4611,10 +4611,10 @@
         <v>0.6981069150025276</v>
       </c>
       <c r="H99">
-        <v>-0.367045117499148</v>
+        <v>-0.4198854714730326</v>
       </c>
       <c r="I99">
-        <v>0.2831941820965727</v>
+        <v>0.2414114597236318</v>
       </c>
     </row>
     <row r="100">
@@ -4644,10 +4644,10 @@
         <v>0.07211603824108859</v>
       </c>
       <c r="H100">
-        <v>0.1765639377626398</v>
+        <v>0.2725837655375069</v>
       </c>
       <c r="I100">
-        <v>1.681912618007223</v>
+        <v>1.777996182182988</v>
       </c>
     </row>
     <row r="101">
@@ -4677,10 +4677,10 @@
         <v>0.02751146176058817</v>
       </c>
       <c r="H101">
-        <v>0.2267108023023583</v>
+        <v>0.1317889417820924</v>
       </c>
       <c r="I101">
-        <v>2.097315315184563</v>
+        <v>2.090994651440531</v>
       </c>
     </row>
     <row r="102">
@@ -4710,10 +4710,10 @@
         <v>0.7534917579778402</v>
       </c>
       <c r="H102">
-        <v>-0.7018766702102054</v>
+        <v>-0.624456053854468</v>
       </c>
       <c r="I102">
-        <v>0.9630794658530171</v>
+        <v>0.9422131521187354</v>
       </c>
     </row>
     <row r="103">
@@ -4743,10 +4743,10 @@
         <v>0.5307703167747249</v>
       </c>
       <c r="H103">
-        <v>-1.018466260982793</v>
+        <v>-1.022343971338151</v>
       </c>
       <c r="I103">
-        <v>0.5300470310307088</v>
+        <v>0.4638854161647995</v>
       </c>
     </row>
     <row r="104">
@@ -4776,10 +4776,10 @@
         <v>0.242025881918261</v>
       </c>
       <c r="H104">
-        <v>-0.4019500625167826</v>
+        <v>-0.3779898069407092</v>
       </c>
       <c r="I104">
-        <v>1.297772707873737</v>
+        <v>1.325995282193734</v>
       </c>
     </row>
     <row r="105">
@@ -4809,10 +4809,10 @@
         <v>0.5492871213138103</v>
       </c>
       <c r="H105">
-        <v>-0.8478385752598845</v>
+        <v>-0.8589683882192437</v>
       </c>
       <c r="I105">
-        <v>0.3616001262894699</v>
+        <v>0.3727335523255995</v>
       </c>
     </row>
     <row r="106">
@@ -4842,10 +4842,10 @@
         <v>0.0473281590668292</v>
       </c>
       <c r="H106">
-        <v>-1.418009751638822</v>
+        <v>-1.365660203976276</v>
       </c>
       <c r="I106">
-        <v>-0.03258513390303176</v>
+        <v>0.00253732698575367</v>
       </c>
     </row>
     <row r="107">
@@ -4875,10 +4875,10 @@
         <v>0.7523725831091722</v>
       </c>
       <c r="H107">
-        <v>-0.9875966512742398</v>
+        <v>-0.869175008089617</v>
       </c>
       <c r="I107">
-        <v>0.6735680927635478</v>
+        <v>0.6492382630557306</v>
       </c>
     </row>
     <row r="108">
@@ -4908,10 +4908,10 @@
         <v>0.3504003569843512</v>
       </c>
       <c r="H108">
-        <v>-1.313315865863578</v>
+        <v>-1.230602945337019</v>
       </c>
       <c r="I108">
-        <v>0.4137953462140581</v>
+        <v>0.53945142598191</v>
       </c>
     </row>
     <row r="109">
@@ -4941,10 +4941,10 @@
         <v>0.6346988782055155</v>
       </c>
       <c r="H109">
-        <v>-2.437460196629877</v>
+        <v>-2.429158278976642</v>
       </c>
       <c r="I109">
-        <v>1.407165274905132</v>
+        <v>1.478938348401716</v>
       </c>
     </row>
     <row r="110">
@@ -4974,10 +4974,10 @@
         <v>0.01974869830851809</v>
       </c>
       <c r="H110">
-        <v>0.02978969450725753</v>
+        <v>0.03935387375506106</v>
       </c>
       <c r="I110">
-        <v>0.489124140443395</v>
+        <v>0.4920917820816467</v>
       </c>
     </row>
     <row r="111">
@@ -5007,10 +5007,10 @@
         <v>0.6286705771373422</v>
       </c>
       <c r="H111">
-        <v>-0.1553128179048896</v>
+        <v>-0.1568214695319474</v>
       </c>
       <c r="I111">
-        <v>0.2685148109302758</v>
+        <v>0.2711518701597906</v>
       </c>
     </row>
     <row r="112">
@@ -5040,10 +5040,10 @@
         <v>0.3483975151156963</v>
       </c>
       <c r="H112">
-        <v>-0.52054561397513</v>
+        <v>-0.5272868128691247</v>
       </c>
       <c r="I112">
-        <v>0.1721453550390795</v>
+        <v>0.194056023203209</v>
       </c>
     </row>
     <row r="113">
@@ -5073,10 +5073,10 @@
         <v>0.1370219668729625</v>
       </c>
       <c r="H113">
-        <v>-0.542665934574395</v>
+        <v>-0.5395442905426656</v>
       </c>
       <c r="I113">
-        <v>0.04560264121557969</v>
+        <v>0.08028599407284376</v>
       </c>
     </row>
     <row r="114">
@@ -5106,10 +5106,10 @@
         <v>0.8483975000063533</v>
       </c>
       <c r="H114">
-        <v>-0.2218630059654358</v>
+        <v>-0.2489568335965543</v>
       </c>
       <c r="I114">
-        <v>0.2640175889126602</v>
+        <v>0.2545426214062962</v>
       </c>
     </row>
     <row r="115">
@@ -5139,10 +5139,10 @@
         <v>0.6591620961543974</v>
       </c>
       <c r="H115">
-        <v>-0.3243995875618235</v>
+        <v>-0.3162605634835158</v>
       </c>
       <c r="I115">
-        <v>0.1772254771819326</v>
+        <v>0.1888629570821694</v>
       </c>
     </row>
     <row r="116">
@@ -5172,10 +5172,10 @@
         <v>0.1874080374019437</v>
       </c>
       <c r="H116">
-        <v>-0.1369490432228248</v>
+        <v>-0.1616647097704486</v>
       </c>
       <c r="I116">
-        <v>0.7751567897546661</v>
+        <v>0.8008176094777707</v>
       </c>
     </row>
     <row r="117">
@@ -5205,10 +5205,10 @@
         <v>0.3007686223458441</v>
       </c>
       <c r="H117">
-        <v>-0.192365016174924</v>
+        <v>-0.223509098540499</v>
       </c>
       <c r="I117">
-        <v>0.7214176267529373</v>
+        <v>0.7052488566431703</v>
       </c>
     </row>
     <row r="118">
@@ -5238,10 +5238,406 @@
         <v>0.6717673897353145</v>
       </c>
       <c r="H118">
-        <v>-0.4378338193059346</v>
+        <v>-0.3462840722735976</v>
       </c>
       <c r="I118">
-        <v>0.2515514714750376</v>
+        <v>0.2618725088773809</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>1.007273339280702</v>
+      </c>
+      <c r="D119">
+        <v>0.3501999357497746</v>
+      </c>
+      <c r="E119">
+        <v>3.172470899198462</v>
+      </c>
+      <c r="F119">
+        <v>2.876280765512248</v>
+      </c>
+      <c r="G119">
+        <v>0.05960262529393068</v>
+      </c>
+      <c r="H119">
+        <v>0.3344572786538703</v>
+      </c>
+      <c r="I119">
+        <v>1.670785315256443</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ss3</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>-0.3189595705384181</v>
+      </c>
+      <c r="D120">
+        <v>0.2847241419242772</v>
+      </c>
+      <c r="E120">
+        <v>308.4388180221065</v>
+      </c>
+      <c r="F120">
+        <v>-1.12024069466946</v>
+      </c>
+      <c r="G120">
+        <v>0.2634827249448746</v>
+      </c>
+      <c r="H120">
+        <v>-0.8702382115366435</v>
+      </c>
+      <c r="I120">
+        <v>0.2592553230240116</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ss5</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>-0.9330978595663808</v>
+      </c>
+      <c r="D121">
+        <v>0.3887967269619108</v>
+      </c>
+      <c r="E121">
+        <v>310.629643970146</v>
+      </c>
+      <c r="F121">
+        <v>-2.399963258069797</v>
+      </c>
+      <c r="G121">
+        <v>0.01698513286308198</v>
+      </c>
+      <c r="H121">
+        <v>-1.690428423429527</v>
+      </c>
+      <c r="I121">
+        <v>-0.1083078895178104</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>percenttwoormoreraces</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>0.2497937783222982</v>
+      </c>
+      <c r="D122">
+        <v>0.1096569986592566</v>
+      </c>
+      <c r="E122">
+        <v>314.8324654261288</v>
+      </c>
+      <c r="F122">
+        <v>2.277955637820223</v>
+      </c>
+      <c r="G122">
+        <v>0.02339915359643622</v>
+      </c>
+      <c r="H122">
+        <v>0.04079408245403552</v>
+      </c>
+      <c r="I122">
+        <v>0.4660123699072622</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>percentasian</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>0.002823085931828985</v>
+      </c>
+      <c r="D123">
+        <v>0.1053894874774536</v>
+      </c>
+      <c r="E123">
+        <v>308.8848183191699</v>
+      </c>
+      <c r="F123">
+        <v>0.0267871682404086</v>
+      </c>
+      <c r="G123">
+        <v>0.9786467855502998</v>
+      </c>
+      <c r="H123">
+        <v>-0.1880002606029876</v>
+      </c>
+      <c r="I123">
+        <v>0.2063576574958056</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>percentwhite</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>-0.2065548032647356</v>
+      </c>
+      <c r="D124">
+        <v>0.1827870335999905</v>
+      </c>
+      <c r="E124">
+        <v>315.4356638100126</v>
+      </c>
+      <c r="F124">
+        <v>-1.130029845096991</v>
+      </c>
+      <c r="G124">
+        <v>0.2593221860764572</v>
+      </c>
+      <c r="H124">
+        <v>-0.5803615380229921</v>
+      </c>
+      <c r="I124">
+        <v>0.1443665429860085</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>percentfreereducedlunch</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>-0.2842826585855172</v>
+      </c>
+      <c r="D125">
+        <v>0.1580596897268107</v>
+      </c>
+      <c r="E125">
+        <v>317.0402237260061</v>
+      </c>
+      <c r="F125">
+        <v>-1.798577860534014</v>
+      </c>
+      <c r="G125">
+        <v>0.07303654655962386</v>
+      </c>
+      <c r="H125">
+        <v>-0.585810269571882</v>
+      </c>
+      <c r="I125">
+        <v>0.03063556708907537</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>rplthemes</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>0.02560258974440326</v>
+      </c>
+      <c r="D126">
+        <v>0.1182957467906876</v>
+      </c>
+      <c r="E126">
+        <v>316.637997772342</v>
+      </c>
+      <c r="F126">
+        <v>0.2164286581638854</v>
+      </c>
+      <c r="G126">
+        <v>0.8287929976275885</v>
+      </c>
+      <c r="H126">
+        <v>-0.1954587710963527</v>
+      </c>
+      <c r="I126">
+        <v>0.2805153924445259</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>percentblackorafricanamerican</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>-0.07279015690436529</v>
+      </c>
+      <c r="D127">
+        <v>0.128840786024105</v>
+      </c>
+      <c r="E127">
+        <v>297.659872629958</v>
+      </c>
+      <c r="F127">
+        <v>-0.5649620679180493</v>
+      </c>
+      <c r="G127">
+        <v>0.5725250981915195</v>
+      </c>
+      <c r="H127">
+        <v>-0.3564579871160112</v>
+      </c>
+      <c r="I127">
+        <v>0.1816934877448107</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>schoollevelHS</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>0.2676501974802603</v>
+      </c>
+      <c r="D128">
+        <v>0.2389700556321904</v>
+      </c>
+      <c r="E128">
+        <v>313.650595215813</v>
+      </c>
+      <c r="F128">
+        <v>1.120015630293917</v>
+      </c>
+      <c r="G128">
+        <v>0.26356400268227</v>
+      </c>
+      <c r="H128">
+        <v>-0.2051302036231795</v>
+      </c>
+      <c r="I128">
+        <v>0.740804682380788</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>schoollevelMS</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>0.2432566602655176</v>
+      </c>
+      <c r="D129">
+        <v>0.2298600700669864</v>
+      </c>
+      <c r="E129">
+        <v>306.1186317208816</v>
+      </c>
+      <c r="F129">
+        <v>1.05828150228366</v>
+      </c>
+      <c r="G129">
+        <v>0.2907614875036456</v>
+      </c>
+      <c r="H129">
+        <v>-0.1898617599644064</v>
+      </c>
+      <c r="I129">
+        <v>0.7106869668769419</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>cntycaseschange</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>-0.09897154569938366</v>
+      </c>
+      <c r="D130">
+        <v>0.1658605815490775</v>
+      </c>
+      <c r="E130">
+        <v>51.23465557384009</v>
+      </c>
+      <c r="F130">
+        <v>-0.5967152941043944</v>
+      </c>
+      <c r="G130">
+        <v>0.5533252276744891</v>
+      </c>
+      <c r="H130">
+        <v>-0.461906496659212</v>
+      </c>
+      <c r="I130">
+        <v>0.2809879813586004</v>
       </c>
     </row>
   </sheetData>

--- a/cumulative_results.xlsx
+++ b/cumulative_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,40 +456,40 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.019936386210659</v>
+        <v>1.039603226773927</v>
       </c>
       <c r="D2">
-        <v>0.3501290814180876</v>
+        <v>0.364326797904568</v>
       </c>
       <c r="E2">
-        <v>3.59215465341249</v>
+        <v>2.980946191485549</v>
       </c>
       <c r="F2">
-        <v>2.913029623474086</v>
+        <v>2.853490966772752</v>
       </c>
       <c r="G2">
-        <v>0.04964264048460895</v>
+        <v>0.0654128023168941</v>
       </c>
       <c r="H2">
-        <v>0.2834120504218763</v>
+        <v>0.2848208430984953</v>
       </c>
       <c r="I2">
-        <v>1.710330982814986</v>
+        <v>1.837214670352129</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L2">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M2">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N2">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="3">
@@ -504,40 +504,40 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.1467560660755715</v>
+        <v>-0.2082688310299523</v>
       </c>
       <c r="D3">
-        <v>0.2817865800500486</v>
+        <v>0.3124445262936224</v>
       </c>
       <c r="E3">
-        <v>313.8735359285676</v>
+        <v>465.3654387827862</v>
       </c>
       <c r="F3">
-        <v>0.5208057319461625</v>
+        <v>-0.6665785875673492</v>
       </c>
       <c r="G3">
-        <v>0.6028693164558701</v>
+        <v>0.5053716797456613</v>
       </c>
       <c r="H3">
-        <v>-0.3797637711929017</v>
+        <v>-0.8189078739903679</v>
       </c>
       <c r="I3">
-        <v>0.6949390264494599</v>
+        <v>0.4247276737407121</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L3">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M3">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N3">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="4">
@@ -552,40 +552,40 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.2327443359414642</v>
+        <v>0.2688258712932695</v>
       </c>
       <c r="D4">
-        <v>0.2682367251758448</v>
+        <v>0.3357734580842558</v>
       </c>
       <c r="E4">
-        <v>309.5217915272995</v>
+        <v>469.5771277413766</v>
       </c>
       <c r="F4">
-        <v>-0.867682588164938</v>
+        <v>0.8006167992760549</v>
       </c>
       <c r="G4">
-        <v>0.386240323001902</v>
+        <v>0.4237583959285612</v>
       </c>
       <c r="H4">
-        <v>-0.7918839605521191</v>
+        <v>-0.336939364461539</v>
       </c>
       <c r="I4">
-        <v>0.3300495205443998</v>
+        <v>0.9737654521580904</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L4">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M4">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N4">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="5">
@@ -600,40 +600,40 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.5333974978298059</v>
+        <v>0.4704149448267629</v>
       </c>
       <c r="D5">
-        <v>0.2540682459447652</v>
+        <v>0.3078923674661176</v>
       </c>
       <c r="E5">
-        <v>307.7569062106648</v>
+        <v>465.9047842913785</v>
       </c>
       <c r="F5">
-        <v>-2.09942606501785</v>
+        <v>1.527855168019163</v>
       </c>
       <c r="G5">
-        <v>0.03659352146781997</v>
+        <v>0.1272270924934545</v>
       </c>
       <c r="H5">
-        <v>-1.059810369144379</v>
+        <v>-0.1413105979061096</v>
       </c>
       <c r="I5">
-        <v>0.004334489455683389</v>
+        <v>1.106189134217535</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L5">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M5">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N5">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="6">
@@ -644,44 +644,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.2417221461176046</v>
+        <v>0.7231238052683475</v>
       </c>
       <c r="D6">
-        <v>0.1099544191761751</v>
+        <v>0.3241464881638624</v>
       </c>
       <c r="E6">
-        <v>313.6031573479346</v>
+        <v>474.3503969608223</v>
       </c>
       <c r="F6">
-        <v>2.198385002882912</v>
+        <v>2.230854973516771</v>
       </c>
       <c r="G6">
-        <v>0.02865195558438659</v>
+        <v>0.02615750726217278</v>
       </c>
       <c r="H6">
-        <v>0.01185891213076445</v>
+        <v>0.08939812169400496</v>
       </c>
       <c r="I6">
-        <v>0.4510146604231831</v>
+        <v>1.350219327364754</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L6">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M6">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N6">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="7">
@@ -692,44 +692,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.007315042302660738</v>
+        <v>-0.2919988275808381</v>
       </c>
       <c r="D7">
-        <v>0.1057367390988412</v>
+        <v>0.2838444982461579</v>
       </c>
       <c r="E7">
-        <v>308.2798371672647</v>
+        <v>426.2960225798091</v>
       </c>
       <c r="F7">
-        <v>0.06918165213911827</v>
+        <v>-1.028728157089762</v>
       </c>
       <c r="G7">
-        <v>0.9448898796854626</v>
+        <v>0.3041907612990659</v>
       </c>
       <c r="H7">
-        <v>-0.1881801200518049</v>
+        <v>-0.8102518125442736</v>
       </c>
       <c r="I7">
-        <v>0.2278871344841083</v>
+        <v>0.2549516857162774</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L7">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M7">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N7">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="8">
@@ -740,44 +740,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.1935163326560597</v>
+        <v>0.1889222642329682</v>
       </c>
       <c r="D8">
-        <v>0.1838210677680213</v>
+        <v>0.1596968058344251</v>
       </c>
       <c r="E8">
-        <v>314.4696479895696</v>
+        <v>96.90004179575497</v>
       </c>
       <c r="F8">
-        <v>-1.052742947289772</v>
+        <v>1.183005904506595</v>
       </c>
       <c r="G8">
-        <v>0.2932670504991191</v>
+        <v>0.2397012045795135</v>
       </c>
       <c r="H8">
-        <v>-0.5774358585009145</v>
+        <v>-0.1073864266493902</v>
       </c>
       <c r="I8">
-        <v>0.1909169310499046</v>
+        <v>0.5219442732520964</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L8">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M8">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N8">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="9">
@@ -788,44 +788,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.2812672173871388</v>
+        <v>0.129072122416019</v>
       </c>
       <c r="D9">
-        <v>0.1588094021186323</v>
+        <v>0.1218503688015328</v>
       </c>
       <c r="E9">
-        <v>315.9269887853191</v>
+        <v>472.1633238497458</v>
       </c>
       <c r="F9">
-        <v>-1.771099277718011</v>
+        <v>1.059267392339607</v>
       </c>
       <c r="G9">
-        <v>0.07750829082893188</v>
+        <v>0.2900195984021023</v>
       </c>
       <c r="H9">
-        <v>-0.6008543696275791</v>
+        <v>-0.1219463202022294</v>
       </c>
       <c r="I9">
-        <v>0.02102239884936347</v>
+        <v>0.3762002765402136</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L9">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M9">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N9">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="10">
@@ -836,44 +836,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.02739483338161914</v>
+        <v>0.04079592477354459</v>
       </c>
       <c r="D10">
-        <v>0.1187599153493316</v>
+        <v>0.1359172817136949</v>
       </c>
       <c r="E10">
-        <v>315.897999714151</v>
+        <v>464.0109742842964</v>
       </c>
       <c r="F10">
-        <v>0.2306740729903468</v>
+        <v>0.3001525947191897</v>
       </c>
       <c r="G10">
-        <v>0.817717335487248</v>
+        <v>0.7641951840441847</v>
       </c>
       <c r="H10">
-        <v>-0.1987530278136226</v>
+        <v>-0.2216463949635163</v>
       </c>
       <c r="I10">
-        <v>0.2402125283496313</v>
+        <v>0.2899518218520376</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L10">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M10">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N10">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="11">
@@ -884,44 +884,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="C11">
-        <v>-0.07457669249072947</v>
+        <v>0.06383452973972804</v>
       </c>
       <c r="D11">
-        <v>0.1289449194915269</v>
+        <v>0.1115623593541319</v>
       </c>
       <c r="E11">
-        <v>294.9717668854305</v>
+        <v>474.9739132695167</v>
       </c>
       <c r="F11">
-        <v>-0.5783608441868854</v>
+        <v>0.5721869823234766</v>
       </c>
       <c r="G11">
-        <v>0.5634618251164623</v>
+        <v>0.5674660154911078</v>
       </c>
       <c r="H11">
-        <v>-0.3441025997747367</v>
+        <v>-0.1529636986975506</v>
       </c>
       <c r="I11">
-        <v>0.212602855966769</v>
+        <v>0.2982360655729053</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L11">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M11">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N11">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="12">
@@ -932,44 +932,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.2843159285265787</v>
+        <v>-0.2698855884269168</v>
       </c>
       <c r="D12">
-        <v>0.2415550545014362</v>
+        <v>0.4141607605662361</v>
       </c>
       <c r="E12">
-        <v>312.8326751035534</v>
+        <v>432.4264622641711</v>
       </c>
       <c r="F12">
-        <v>1.177023304742681</v>
+        <v>-0.6516445161485896</v>
       </c>
       <c r="G12">
-        <v>0.2400809627951311</v>
+        <v>0.5149766961467528</v>
       </c>
       <c r="H12">
-        <v>-0.2094689139795239</v>
+        <v>-1.046729896758401</v>
       </c>
       <c r="I12">
-        <v>0.7080914543682141</v>
+        <v>0.4752411467310181</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L12">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M12">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N12">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="13">
@@ -980,44 +980,44 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.2370338004343112</v>
+        <v>0.01104083134495893</v>
       </c>
       <c r="D13">
-        <v>0.2313878247894691</v>
+        <v>0.08613142280915129</v>
       </c>
       <c r="E13">
-        <v>305.1396280436675</v>
+        <v>474.090240744629</v>
       </c>
       <c r="F13">
-        <v>1.024400487147408</v>
+        <v>0.1281858697426029</v>
       </c>
       <c r="G13">
-        <v>0.3064575649738183</v>
+        <v>0.8980562388371092</v>
       </c>
       <c r="H13">
-        <v>-0.2118972728836294</v>
+        <v>-0.1563647252225046</v>
       </c>
       <c r="I13">
-        <v>0.6859994500633758</v>
+        <v>0.1740149228856589</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L13">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M13">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N13">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="14">
@@ -1028,956 +1028,587 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="C14">
-        <v>-0.08589858777288259</v>
+        <v>-0.07637316130314399</v>
       </c>
       <c r="D14">
-        <v>0.1652708127357512</v>
+        <v>0.3473420391896413</v>
       </c>
       <c r="E14">
-        <v>51.10461248121192</v>
+        <v>430.0174213737853</v>
       </c>
       <c r="F14">
-        <v>-0.5197444506443157</v>
+        <v>-0.2198788303348616</v>
       </c>
       <c r="G14">
-        <v>0.6054857849294826</v>
+        <v>0.8260698642985296</v>
       </c>
       <c r="H14">
-        <v>-0.4219594073253026</v>
+        <v>-0.7278987373220693</v>
       </c>
       <c r="I14">
-        <v>0.3043565858790745</v>
+        <v>0.5898863435826494</v>
       </c>
       <c r="J14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14">
-        <v>1312.56295726069</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L14">
-        <v>1373.396851266723</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M14">
-        <v>-640.2814786303452</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N14">
-        <v>1280.56295726069</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.973386344336183</v>
+        <v>-0.202532149708557</v>
       </c>
       <c r="D15">
-        <v>0.3498544578504694</v>
+        <v>0.1447950956476984</v>
       </c>
       <c r="E15">
-        <v>3.482803295849355</v>
+        <v>473.527684228212</v>
       </c>
       <c r="F15">
-        <v>2.782260801582286</v>
+        <v>-1.398750066793277</v>
       </c>
       <c r="G15">
-        <v>0.05812185553694306</v>
+        <v>0.1625425546842996</v>
       </c>
       <c r="H15">
-        <v>0.2845412020792215</v>
+        <v>-0.4821597525184847</v>
       </c>
       <c r="I15">
-        <v>1.688628675083661</v>
+        <v>0.06143772249494832</v>
       </c>
       <c r="J15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>1305.807720409842</v>
+        <v>2026.355184578227</v>
       </c>
       <c r="L15">
-        <v>1374.24585116663</v>
+        <v>2097.660076227007</v>
       </c>
       <c r="M15">
-        <v>-634.9038602049212</v>
+        <v>-996.1775922891136</v>
       </c>
       <c r="N15">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O15">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>0.004618808879478783</v>
+        <v>1992.355184578227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ss1</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.063646987222966</v>
+        <v>1.055863383594537</v>
       </c>
       <c r="D16">
-        <v>0.3698179325662371</v>
+        <v>0.3610234323257838</v>
       </c>
       <c r="E16">
-        <v>307.072691001003</v>
+        <v>2.999921801564736</v>
       </c>
       <c r="F16">
-        <v>2.876136859676104</v>
+        <v>2.924639480580133</v>
       </c>
       <c r="G16">
-        <v>0.004307415602908025</v>
+        <v>0.06126759138643954</v>
       </c>
       <c r="H16">
-        <v>0.3423474667853794</v>
+        <v>0.3165725687805481</v>
       </c>
       <c r="I16">
-        <v>1.836228693313179</v>
-      </c>
-      <c r="J16">
-        <v>18</v>
-      </c>
-      <c r="K16">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L16">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M16">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N16">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O16">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>0.004618808879478783</v>
+        <v>1.715695436536972</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ss2</t>
+          <t>ss1</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.2013385120437496</v>
+        <v>-0.1913946215465956</v>
       </c>
       <c r="D17">
-        <v>0.3092675024028095</v>
+        <v>0.3210027243374961</v>
       </c>
       <c r="E17">
-        <v>305.9820026210138</v>
+        <v>466.1303526851161</v>
       </c>
       <c r="F17">
-        <v>-0.651017357075926</v>
+        <v>-0.5962398666291908</v>
       </c>
       <c r="G17">
-        <v>0.5155238728790634</v>
+        <v>0.5513044233942846</v>
       </c>
       <c r="H17">
-        <v>-0.8217424239781287</v>
+        <v>-0.8087039304192073</v>
       </c>
       <c r="I17">
-        <v>0.373917330041954</v>
-      </c>
-      <c r="J17">
-        <v>18</v>
-      </c>
-      <c r="K17">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L17">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M17">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N17">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O17">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>0.004618808879478783</v>
+        <v>0.4588564650402531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ss3</t>
+          <t>ss2</t>
         </is>
       </c>
       <c r="C18">
-        <v>-0.1155908132438912</v>
+        <v>0.1675735517047533</v>
       </c>
       <c r="D18">
-        <v>0.2781725429415268</v>
+        <v>0.3466524967164404</v>
       </c>
       <c r="E18">
-        <v>306.6236829867062</v>
+        <v>466.6381265195444</v>
       </c>
       <c r="F18">
-        <v>-0.4155363862356067</v>
+        <v>0.4834050044123221</v>
       </c>
       <c r="G18">
-        <v>0.678039927149849</v>
+        <v>0.629034935740646</v>
       </c>
       <c r="H18">
-        <v>-0.6460974383511378</v>
+        <v>-0.6158046839008964</v>
       </c>
       <c r="I18">
-        <v>0.4299232990056411</v>
-      </c>
-      <c r="J18">
-        <v>18</v>
-      </c>
-      <c r="K18">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L18">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M18">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N18">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O18">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>0.004618808879478783</v>
+        <v>0.8202095932758937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ss4</t>
+          <t>ss3</t>
         </is>
       </c>
       <c r="C19">
-        <v>-0.2433941829290321</v>
+        <v>0.6087636739229064</v>
       </c>
       <c r="D19">
-        <v>0.2944247095106703</v>
+        <v>0.3315974660508729</v>
       </c>
       <c r="E19">
-        <v>305.9110764896828</v>
+        <v>466.1244398367523</v>
       </c>
       <c r="F19">
-        <v>-0.8266771608047088</v>
+        <v>1.835851404936585</v>
       </c>
       <c r="G19">
-        <v>0.4090643909381595</v>
+        <v>0.06701643973439642</v>
       </c>
       <c r="H19">
-        <v>-0.7894788144458892</v>
+        <v>-0.1375465953069593</v>
       </c>
       <c r="I19">
-        <v>0.3158699429736271</v>
-      </c>
-      <c r="J19">
-        <v>18</v>
-      </c>
-      <c r="K19">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L19">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M19">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N19">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O19">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19">
-        <v>0.004618808879478783</v>
+        <v>1.215815553555451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ss5</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.842918344535994</v>
+        <v>-0.1137208750247261</v>
       </c>
       <c r="D20">
-        <v>0.3930892637448247</v>
+        <v>0.3819758332796422</v>
       </c>
       <c r="E20">
-        <v>306.5807459047596</v>
+        <v>472.4642423549392</v>
       </c>
       <c r="F20">
-        <v>-2.144343339489367</v>
+        <v>-0.2977174604171143</v>
       </c>
       <c r="G20">
-        <v>0.03279137701991269</v>
+        <v>0.7660496821871946</v>
       </c>
       <c r="H20">
-        <v>-1.566691695612505</v>
+        <v>-0.8992410762768851</v>
       </c>
       <c r="I20">
-        <v>-0.08708095587187574</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L20">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M20">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N20">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O20">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>0.004618808879478783</v>
+        <v>0.6328232775441264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>ss5</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.2411494756888448</v>
+        <v>1.094317087788517</v>
       </c>
       <c r="D21">
-        <v>0.1089523849717869</v>
+        <v>0.3953050627466185</v>
       </c>
       <c r="E21">
-        <v>310.4546718705994</v>
+        <v>472.7224641436483</v>
       </c>
       <c r="F21">
-        <v>2.213347378777345</v>
+        <v>2.768285030768627</v>
       </c>
       <c r="G21">
-        <v>0.02760057400643724</v>
+        <v>0.005856536414715574</v>
       </c>
       <c r="H21">
-        <v>0.03022460932315688</v>
+        <v>0.2437411771270127</v>
       </c>
       <c r="I21">
-        <v>0.4732341249810488</v>
-      </c>
-      <c r="J21">
-        <v>18</v>
-      </c>
-      <c r="K21">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L21">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M21">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N21">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O21">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>0.004618808879478783</v>
+        <v>1.88147187798451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.04334925565351727</v>
+        <v>-0.3084955776928349</v>
       </c>
       <c r="D22">
-        <v>0.1049636856221083</v>
+        <v>0.2831192306355401</v>
       </c>
       <c r="E22">
-        <v>305.1569576530459</v>
+        <v>431.8473572033095</v>
       </c>
       <c r="F22">
-        <v>0.4129928879363464</v>
+        <v>-1.089631308337235</v>
       </c>
       <c r="G22">
-        <v>0.6799018601661131</v>
+        <v>0.2764832375923804</v>
       </c>
       <c r="H22">
-        <v>-0.1363081466817822</v>
+        <v>-0.8152778717890284</v>
       </c>
       <c r="I22">
-        <v>0.2407241054335687</v>
-      </c>
-      <c r="J22">
-        <v>18</v>
-      </c>
-      <c r="K22">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L22">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M22">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N22">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O22">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>0.004618808879478783</v>
+        <v>0.2377405893648031</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="C23">
-        <v>-0.1574478292020669</v>
+        <v>0.1888013431430642</v>
       </c>
       <c r="D23">
-        <v>0.1822137746173979</v>
+        <v>0.1605251519694771</v>
       </c>
       <c r="E23">
-        <v>313.1355381250822</v>
+        <v>105.9795538325082</v>
       </c>
       <c r="F23">
-        <v>-0.8640830229913564</v>
+        <v>1.176148041765839</v>
       </c>
       <c r="G23">
-        <v>0.3882036853072163</v>
+        <v>0.2421709286659635</v>
       </c>
       <c r="H23">
-        <v>-0.5220301717860029</v>
+        <v>-0.1447584546269028</v>
       </c>
       <c r="I23">
-        <v>0.2266035074830791</v>
-      </c>
-      <c r="J23">
-        <v>18</v>
-      </c>
-      <c r="K23">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L23">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M23">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N23">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O23">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>0.004618808879478783</v>
+        <v>0.5028437004854714</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.2198182365766204</v>
+        <v>0.126716534547003</v>
       </c>
       <c r="D24">
-        <v>0.1587008752103357</v>
+        <v>0.1218650605399174</v>
       </c>
       <c r="E24">
-        <v>313.3365603279501</v>
+        <v>471.6970556830424</v>
       </c>
       <c r="F24">
-        <v>-1.385110424156655</v>
+        <v>1.039810212915756</v>
       </c>
       <c r="G24">
-        <v>0.1670040167557344</v>
+        <v>0.2989607666710716</v>
       </c>
       <c r="H24">
-        <v>-0.5366131893577966</v>
+        <v>-0.1087979349343024</v>
       </c>
       <c r="I24">
-        <v>0.1201307121267209</v>
-      </c>
-      <c r="J24">
-        <v>18</v>
-      </c>
-      <c r="K24">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L24">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M24">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N24">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O24">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>0.004618808879478783</v>
+        <v>0.3985508895273613</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.001052773754430329</v>
+        <v>0.03957595377140483</v>
       </c>
       <c r="D25">
-        <v>0.1174014703564395</v>
+        <v>0.1356412797822744</v>
       </c>
       <c r="E25">
-        <v>312.7099478872439</v>
+        <v>464.922560890938</v>
       </c>
       <c r="F25">
-        <v>0.008967296161061953</v>
+        <v>0.2917692448414705</v>
       </c>
       <c r="G25">
-        <v>0.9928509467147366</v>
+        <v>0.7705932013561297</v>
       </c>
       <c r="H25">
-        <v>-0.2524642001192443</v>
+        <v>-0.1929480055681254</v>
       </c>
       <c r="I25">
-        <v>0.230783945469051</v>
-      </c>
-      <c r="J25">
-        <v>18</v>
-      </c>
-      <c r="K25">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L25">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M25">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N25">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O25">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <v>0.004618808879478783</v>
+        <v>0.2959117026964072</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.03416651392272412</v>
+        <v>0.06152671075206288</v>
       </c>
       <c r="D26">
-        <v>0.1276978398579138</v>
+        <v>0.1109556648212066</v>
       </c>
       <c r="E26">
-        <v>290.3892741209606</v>
+        <v>473.7742220124339</v>
       </c>
       <c r="F26">
-        <v>-0.2675574932257299</v>
+        <v>0.5545161741061777</v>
       </c>
       <c r="G26">
-        <v>0.789229887055815</v>
+        <v>0.5794873017362796</v>
       </c>
       <c r="H26">
-        <v>-0.2919725654247182</v>
+        <v>-0.1631833156949078</v>
       </c>
       <c r="I26">
-        <v>0.223047941305191</v>
-      </c>
-      <c r="J26">
-        <v>18</v>
-      </c>
-      <c r="K26">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L26">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M26">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N26">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O26">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26">
-        <v>0.004618808879478783</v>
+        <v>0.3014085216150824</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.2345177926318142</v>
+        <v>-0.3091608676009918</v>
       </c>
       <c r="D27">
-        <v>0.2381880695624002</v>
+        <v>0.4122761539274052</v>
       </c>
       <c r="E27">
-        <v>309.533299053644</v>
+        <v>439.0317362712886</v>
       </c>
       <c r="F27">
-        <v>0.9845908448003756</v>
+        <v>-0.7498878231396079</v>
       </c>
       <c r="G27">
-        <v>0.325594064051256</v>
+        <v>0.4537239182197141</v>
       </c>
       <c r="H27">
-        <v>-0.2615766894516497</v>
+        <v>-1.091204501681449</v>
       </c>
       <c r="I27">
-        <v>0.7343499209923907</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="K27">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L27">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M27">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N27">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O27">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>0.004618808879478783</v>
+        <v>0.4960115339117152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.1892272362119928</v>
+        <v>0.005093918228571513</v>
       </c>
       <c r="D28">
-        <v>0.2296993599374001</v>
+        <v>0.0856467947540917</v>
       </c>
       <c r="E28">
-        <v>302.9065168844498</v>
+        <v>473.1538564480728</v>
       </c>
       <c r="F28">
-        <v>0.823803933383022</v>
+        <v>0.05947587698053528</v>
       </c>
       <c r="G28">
-        <v>0.4106991278636435</v>
+        <v>0.9525981901049472</v>
       </c>
       <c r="H28">
-        <v>-0.2948680693498724</v>
+        <v>-0.1754714477643322</v>
       </c>
       <c r="I28">
-        <v>0.7000886864759898</v>
-      </c>
-      <c r="J28">
-        <v>18</v>
-      </c>
-      <c r="K28">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L28">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M28">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N28">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O28">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>0.004618808879478783</v>
+        <v>0.1690075823122334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="C29">
-        <v>-0.1348202841047896</v>
+        <v>-0.1039403521739033</v>
       </c>
       <c r="D29">
-        <v>0.1684258274175761</v>
+        <v>0.3464786338167227</v>
       </c>
       <c r="E29">
-        <v>51.5242369995657</v>
+        <v>436.0786738965188</v>
       </c>
       <c r="F29">
-        <v>-0.8004727432362929</v>
+        <v>-0.2999906546297594</v>
       </c>
       <c r="G29">
-        <v>0.4271125636813243</v>
+        <v>0.7643272298558973</v>
       </c>
       <c r="H29">
-        <v>-0.4840510266555417</v>
+        <v>-0.7067276676709655</v>
       </c>
       <c r="I29">
-        <v>0.198574693034343</v>
-      </c>
-      <c r="J29">
-        <v>18</v>
-      </c>
-      <c r="K29">
-        <v>1305.807720409842</v>
-      </c>
-      <c r="L29">
-        <v>1374.24585116663</v>
-      </c>
-      <c r="M29">
-        <v>-634.9038602049212</v>
-      </c>
-      <c r="N29">
-        <v>1269.807720409842</v>
-      </c>
-      <c r="O29">
-        <v>10.75523685084795</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>0.004618808879478783</v>
+        <v>0.5845986745532933</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.9775382808952777</v>
+        <v>-0.22726365963104</v>
       </c>
       <c r="D30">
-        <v>0.3626317172385123</v>
+        <v>0.1443872137959819</v>
       </c>
       <c r="E30">
-        <v>3.508856042177535</v>
+        <v>472.7537439842853</v>
       </c>
       <c r="F30">
-        <v>2.695677830773763</v>
+        <v>-1.573987430439387</v>
       </c>
       <c r="G30">
-        <v>0.06252292722425552</v>
+        <v>0.1161593095085033</v>
       </c>
       <c r="H30">
-        <v>0.2137330607612459</v>
+        <v>-0.5214370039759475</v>
       </c>
       <c r="I30">
-        <v>1.658602429560259</v>
-      </c>
-      <c r="J30">
-        <v>19</v>
-      </c>
-      <c r="K30">
-        <v>1308.855755021857</v>
-      </c>
-      <c r="L30">
-        <v>1381.096004154021</v>
-      </c>
-      <c r="M30">
-        <v>-635.4278775109285</v>
-      </c>
-      <c r="N30">
-        <v>1270.855755021857</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
+        <v>0.05013599641653133</v>
       </c>
     </row>
     <row r="31">
@@ -1988,53 +1619,53 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ss1</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C31">
-        <v>1.275325880954126</v>
+        <v>1.058032207158152</v>
       </c>
       <c r="D31">
-        <v>0.4494013159934823</v>
+        <v>0.3526440272868759</v>
       </c>
       <c r="E31">
-        <v>302.2969868013906</v>
+        <v>2.97588921014648</v>
       </c>
       <c r="F31">
-        <v>2.837832991509579</v>
+        <v>3.000283927387896</v>
       </c>
       <c r="G31">
-        <v>0.004849334745694508</v>
+        <v>0.05825006799171201</v>
       </c>
       <c r="H31">
-        <v>0.3680090565890101</v>
+        <v>0.3430337838367105</v>
       </c>
       <c r="I31">
-        <v>2.044476804175094</v>
+        <v>1.742140551900127</v>
       </c>
       <c r="J31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K31">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L31">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M31">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N31">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="32">
@@ -2045,53 +1676,53 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ss2</t>
+          <t>ss1</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.03675505413116983</v>
+        <v>-0.2040577306389818</v>
       </c>
       <c r="D32">
-        <v>0.3596839835185819</v>
+        <v>0.4002086156491843</v>
       </c>
       <c r="E32">
-        <v>307.3964399640125</v>
+        <v>467.3636851449742</v>
       </c>
       <c r="F32">
-        <v>-0.1021870748083254</v>
+        <v>-0.5098784050612621</v>
       </c>
       <c r="G32">
-        <v>0.9186748126778145</v>
+        <v>0.610377340518813</v>
       </c>
       <c r="H32">
-        <v>-0.693494691170524</v>
+        <v>-1.086163323573437</v>
       </c>
       <c r="I32">
-        <v>0.6586925022636354</v>
+        <v>0.6814376901515451</v>
       </c>
       <c r="J32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L32">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M32">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N32">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="33">
@@ -2102,53 +1733,53 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ss3</t>
+          <t>ss2</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.2198389204444531</v>
+        <v>-0.0636994001229281</v>
       </c>
       <c r="D33">
-        <v>0.2894411310860572</v>
+        <v>0.3610343466832317</v>
       </c>
       <c r="E33">
-        <v>304.6955910209104</v>
+        <v>464.639633920132</v>
       </c>
       <c r="F33">
-        <v>-0.7595289571304573</v>
+        <v>-0.1764358452544056</v>
       </c>
       <c r="G33">
-        <v>0.4481234189980438</v>
+        <v>0.860028420788409</v>
       </c>
       <c r="H33">
-        <v>-0.7475689974832084</v>
+        <v>-0.7673287138983634</v>
       </c>
       <c r="I33">
-        <v>0.3335766308591917</v>
+        <v>0.7107403815413806</v>
       </c>
       <c r="J33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K33">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L33">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M33">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N33">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="34">
@@ -2159,53 +1790,53 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ss4</t>
+          <t>ss3</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.2822021288040638</v>
+        <v>0.7219454038213535</v>
       </c>
       <c r="D34">
-        <v>0.3124714881077453</v>
+        <v>0.3316314768773296</v>
       </c>
       <c r="E34">
-        <v>309.2532619359021</v>
+        <v>463.0508706323342</v>
       </c>
       <c r="F34">
-        <v>-0.9031292119259079</v>
+        <v>2.176950784706124</v>
       </c>
       <c r="G34">
-        <v>0.3671602410124577</v>
+        <v>0.02998863899231802</v>
       </c>
       <c r="H34">
-        <v>-0.8877377064802509</v>
+        <v>0.06179871087184737</v>
       </c>
       <c r="I34">
-        <v>0.3115219482590851</v>
+        <v>1.379990432732748</v>
       </c>
       <c r="J34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L34">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M34">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N34">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="35">
@@ -2216,53 +1847,53 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ss5</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="C35">
-        <v>-0.0968485622077741</v>
+        <v>-0.1654839346984285</v>
       </c>
       <c r="D35">
-        <v>0.3264146035101319</v>
+        <v>0.3834805865130034</v>
       </c>
       <c r="E35">
-        <v>304.5839244053927</v>
+        <v>466.2013993168969</v>
       </c>
       <c r="F35">
-        <v>-0.2967041338417567</v>
+        <v>-0.4315314530082923</v>
       </c>
       <c r="G35">
-        <v>0.7668946240781603</v>
+        <v>0.6662814729920469</v>
       </c>
       <c r="H35">
-        <v>-0.744452479459231</v>
+        <v>-0.9144004795811373</v>
       </c>
       <c r="I35">
-        <v>0.5511582570052165</v>
+        <v>0.5719684523475244</v>
       </c>
       <c r="J35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K35">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L35">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M35">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N35">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="36">
@@ -2273,53 +1904,53 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ss6</t>
+          <t>ss5</t>
         </is>
       </c>
       <c r="C36">
-        <v>-0.9297494942162106</v>
+        <v>0.6481721830153875</v>
       </c>
       <c r="D36">
-        <v>0.429248113298873</v>
+        <v>0.4877535064371778</v>
       </c>
       <c r="E36">
-        <v>306.2757908185048</v>
+        <v>467.2889158658937</v>
       </c>
       <c r="F36">
-        <v>-2.165995528951465</v>
+        <v>1.328892923292334</v>
       </c>
       <c r="G36">
-        <v>0.03108283570422055</v>
+        <v>0.1845318097325645</v>
       </c>
       <c r="H36">
-        <v>-1.688749101184015</v>
+        <v>-0.3137552330534013</v>
       </c>
       <c r="I36">
-        <v>-0.09346320331169729</v>
+        <v>1.613380766164291</v>
       </c>
       <c r="J36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K36">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L36">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M36">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N36">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="37">
@@ -2330,53 +1961,53 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>ss6</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.2520111259397764</v>
+        <v>-0.7450968975910988</v>
       </c>
       <c r="D37">
-        <v>0.1092718776117717</v>
+        <v>0.4714027711130875</v>
       </c>
       <c r="E37">
-        <v>309.7749989046799</v>
+        <v>470.3614872942391</v>
       </c>
       <c r="F37">
-        <v>2.306276156754057</v>
+        <v>-1.580595073363184</v>
       </c>
       <c r="G37">
-        <v>0.02175506015455142</v>
+        <v>0.1146428426845925</v>
       </c>
       <c r="H37">
-        <v>0.03604945668322138</v>
+        <v>-1.692275619983528</v>
       </c>
       <c r="I37">
-        <v>0.4662316548215919</v>
+        <v>0.1364785508678878</v>
       </c>
       <c r="J37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K37">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L37">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M37">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N37">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="38">
@@ -2387,53 +2018,53 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>ss7</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.04088399807732317</v>
+        <v>1.585121671658214</v>
       </c>
       <c r="D38">
-        <v>0.1051811647179652</v>
+        <v>0.4582820837858668</v>
       </c>
       <c r="E38">
-        <v>303.939690476827</v>
+        <v>470.8275677185277</v>
       </c>
       <c r="F38">
-        <v>0.3887007544264253</v>
+        <v>3.458834040736503</v>
       </c>
       <c r="G38">
-        <v>0.6977696725009876</v>
+        <v>0.0005918135839434725</v>
       </c>
       <c r="H38">
-        <v>-0.1633368304452101</v>
+        <v>0.7775980547678597</v>
       </c>
       <c r="I38">
-        <v>0.230800896857949</v>
+        <v>2.402917528376343</v>
       </c>
       <c r="J38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K38">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L38">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M38">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N38">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="39">
@@ -2444,53 +2075,53 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="C39">
-        <v>-0.1606066847475485</v>
+        <v>-0.2808832069625332</v>
       </c>
       <c r="D39">
-        <v>0.1827860543901702</v>
+        <v>0.2806997411815242</v>
       </c>
       <c r="E39">
-        <v>312.0199949702175</v>
+        <v>415.4857962307552</v>
       </c>
       <c r="F39">
-        <v>-0.8786593992817513</v>
+        <v>-1.000653601532502</v>
       </c>
       <c r="G39">
-        <v>0.3802621071032635</v>
+        <v>0.3175767161922322</v>
       </c>
       <c r="H39">
-        <v>-0.5407540741261334</v>
+        <v>-0.8802154853800642</v>
       </c>
       <c r="I39">
-        <v>0.2049409166018693</v>
+        <v>0.2891853497568966</v>
       </c>
       <c r="J39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K39">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L39">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M39">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N39">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="40">
@@ -2501,53 +2132,53 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="C40">
-        <v>-0.2344047431148049</v>
+        <v>0.1641064177973146</v>
       </c>
       <c r="D40">
-        <v>0.1588513675838936</v>
+        <v>0.1562352814294982</v>
       </c>
       <c r="E40">
-        <v>312.6437867753077</v>
+        <v>100.6580483037463</v>
       </c>
       <c r="F40">
-        <v>-1.4756230725619</v>
+        <v>1.050380018493891</v>
       </c>
       <c r="G40">
-        <v>0.1410514875989229</v>
+        <v>0.296058706573583</v>
       </c>
       <c r="H40">
-        <v>-0.5496273570798524</v>
+        <v>-0.1693577430091975</v>
       </c>
       <c r="I40">
-        <v>0.06996570317065998</v>
+        <v>0.5013488483691857</v>
       </c>
       <c r="J40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K40">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L40">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M40">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N40">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="41">
@@ -2558,53 +2189,53 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.01545695478182866</v>
+        <v>0.1618816296965445</v>
       </c>
       <c r="D41">
-        <v>0.1181298852805543</v>
+        <v>0.1205096740899681</v>
       </c>
       <c r="E41">
-        <v>312.0510150497741</v>
+        <v>468.2735255661628</v>
       </c>
       <c r="F41">
-        <v>0.1308471158261006</v>
+        <v>1.343308169397998</v>
       </c>
       <c r="G41">
-        <v>0.8959805637514762</v>
+        <v>0.1798228374614787</v>
       </c>
       <c r="H41">
-        <v>-0.2242934259585204</v>
+        <v>-0.1041834944979086</v>
       </c>
       <c r="I41">
-        <v>0.2682195949888659</v>
+        <v>0.3906928743664794</v>
       </c>
       <c r="J41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K41">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L41">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M41">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N41">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="42">
@@ -2615,53 +2246,53 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="C42">
-        <v>-0.05164798708826762</v>
+        <v>0.06248616388185461</v>
       </c>
       <c r="D42">
-        <v>0.1285545292028115</v>
+        <v>0.1344996773777054</v>
       </c>
       <c r="E42">
-        <v>296.2871861160427</v>
+        <v>457.3634550526143</v>
       </c>
       <c r="F42">
-        <v>-0.4017593733067637</v>
+        <v>0.4645822584866088</v>
       </c>
       <c r="G42">
-        <v>0.68815076450387</v>
+        <v>0.6424517177633384</v>
       </c>
       <c r="H42">
-        <v>-0.3293431498064522</v>
+        <v>-0.2082898229126584</v>
       </c>
       <c r="I42">
-        <v>0.2180059070374321</v>
+        <v>0.3115881567924489</v>
       </c>
       <c r="J42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K42">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L42">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M42">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N42">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="43">
@@ -2672,53 +2303,53 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.2886346699012488</v>
+        <v>0.05483405513656137</v>
       </c>
       <c r="D43">
-        <v>0.2395083714661361</v>
+        <v>0.1105241293520642</v>
       </c>
       <c r="E43">
-        <v>308.8199632541262</v>
+        <v>472.1229120174299</v>
       </c>
       <c r="F43">
-        <v>1.205113074479982</v>
+        <v>0.4961274561312549</v>
       </c>
       <c r="G43">
-        <v>0.2290822980262702</v>
+        <v>0.6200353735399536</v>
       </c>
       <c r="H43">
-        <v>-0.1532693840751618</v>
+        <v>-0.1835915912728082</v>
       </c>
       <c r="I43">
-        <v>0.76705513253247</v>
+        <v>0.2832254614995526</v>
       </c>
       <c r="J43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L43">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M43">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N43">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="44">
@@ -2729,53 +2360,53 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.2678723241095449</v>
+        <v>-0.2605425840695004</v>
       </c>
       <c r="D44">
-        <v>0.2324761359907889</v>
+        <v>0.4090977595082839</v>
       </c>
       <c r="E44">
-        <v>302.9022708935258</v>
+        <v>423.7122719162273</v>
       </c>
       <c r="F44">
-        <v>1.152257297153969</v>
+        <v>-0.6368712074655706</v>
       </c>
       <c r="G44">
-        <v>0.2501239398540214</v>
+        <v>0.5245526655087754</v>
       </c>
       <c r="H44">
-        <v>-0.1700613969589585</v>
+        <v>-1.092766187021966</v>
       </c>
       <c r="I44">
-        <v>0.7246833565176921</v>
+        <v>0.5796672946068507</v>
       </c>
       <c r="J44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L44">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M44">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N44">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="45">
@@ -2786,1082 +2417,1130 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="C45">
-        <v>-0.1155395509638581</v>
+        <v>0.03493985253161003</v>
       </c>
       <c r="D45">
-        <v>0.1666797605118273</v>
+        <v>0.08436641683401613</v>
       </c>
       <c r="E45">
-        <v>51.02310755190467</v>
+        <v>470.9100317575769</v>
       </c>
       <c r="F45">
-        <v>-0.6931828472099324</v>
+        <v>0.4141440853219033</v>
       </c>
       <c r="G45">
-        <v>0.4913382811027023</v>
+        <v>0.6789571547589095</v>
       </c>
       <c r="H45">
-        <v>-0.412485709777026</v>
+        <v>-0.1354846651379143</v>
       </c>
       <c r="I45">
-        <v>0.2035585290045968</v>
+        <v>0.2044731066313547</v>
       </c>
       <c r="J45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K45">
-        <v>1308.855755021857</v>
+        <v>2017.345787286862</v>
       </c>
       <c r="L45">
-        <v>1381.096004154021</v>
+        <v>2101.233895108956</v>
       </c>
       <c r="M45">
-        <v>-635.4278775109285</v>
+        <v>-988.6728936434312</v>
       </c>
       <c r="N45">
-        <v>1270.855755021857</v>
+        <v>1977.345787286862</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>10.86235541033693</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.9402509796968351</v>
+        <v>-0.0859068918742799</v>
       </c>
       <c r="D46">
-        <v>0.3537837608348917</v>
+        <v>0.3430253102003691</v>
       </c>
       <c r="E46">
-        <v>3.607069179380393</v>
+        <v>419.8297051301567</v>
       </c>
       <c r="F46">
-        <v>2.65769965664321</v>
+        <v>-0.2504389306552909</v>
       </c>
       <c r="G46">
-        <v>0.06297009607337689</v>
+        <v>0.8023704364724586</v>
       </c>
       <c r="H46">
-        <v>0.2986598028976839</v>
+        <v>-0.8363855664979466</v>
       </c>
       <c r="I46">
-        <v>1.629211434857524</v>
+        <v>0.6125444526494083</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>2017.345787286862</v>
+      </c>
+      <c r="L46">
+        <v>2101.233895108956</v>
+      </c>
+      <c r="M46">
+        <v>-988.6728936434312</v>
+      </c>
+      <c r="N46">
+        <v>1977.345787286862</v>
+      </c>
+      <c r="O46">
+        <v>10.86235541033693</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ss1</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="C47">
-        <v>1.215047638860803</v>
+        <v>-0.1684157697318361</v>
       </c>
       <c r="D47">
-        <v>0.4302168878821278</v>
+        <v>0.1433227738593603</v>
       </c>
       <c r="E47">
-        <v>306.7245969848638</v>
+        <v>470.3330804680813</v>
       </c>
       <c r="F47">
-        <v>2.824267649841087</v>
+        <v>-1.175080311361396</v>
       </c>
       <c r="G47">
-        <v>0.005049185733957656</v>
+        <v>0.240557124473076</v>
       </c>
       <c r="H47">
-        <v>0.2653809009916422</v>
+        <v>-0.4778269265481485</v>
       </c>
       <c r="I47">
-        <v>1.984193583738628</v>
+        <v>0.1295286833936503</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>2017.345787286862</v>
+      </c>
+      <c r="L47">
+        <v>2101.233895108956</v>
+      </c>
+      <c r="M47">
+        <v>-988.6728936434312</v>
+      </c>
+      <c r="N47">
+        <v>1977.345787286862</v>
+      </c>
+      <c r="O47">
+        <v>10.86235541033693</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>0.004377936846549019</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ss2</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.06983562012986598</v>
+        <v>1.050168006897891</v>
       </c>
       <c r="D48">
-        <v>0.4066042234433616</v>
+        <v>0.3641227277741416</v>
       </c>
       <c r="E48">
-        <v>306.6037237792032</v>
+        <v>3.003289906086233</v>
       </c>
       <c r="F48">
-        <v>-0.1717533072786535</v>
+        <v>2.884104525189899</v>
       </c>
       <c r="G48">
-        <v>0.8637447796552011</v>
+        <v>0.06323340555034157</v>
       </c>
       <c r="H48">
-        <v>-0.8982748920281581</v>
+        <v>0.4068057531847902</v>
       </c>
       <c r="I48">
-        <v>0.7412443534161096</v>
+        <v>1.780556464020629</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ss3</t>
+          <t>ss1</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.1202929537486545</v>
+        <v>-0.1371566751724837</v>
       </c>
       <c r="D49">
-        <v>0.3282018123919228</v>
+        <v>0.4123300042764562</v>
       </c>
       <c r="E49">
-        <v>303.5409155027182</v>
+        <v>464.0696335582509</v>
       </c>
       <c r="F49">
-        <v>0.3665212963693402</v>
+        <v>-0.3326381144956015</v>
       </c>
       <c r="G49">
-        <v>0.7142314729337769</v>
+        <v>0.739557676117277</v>
       </c>
       <c r="H49">
-        <v>-0.4954934610532872</v>
+        <v>-0.9450561665605614</v>
       </c>
       <c r="I49">
-        <v>0.7356696601534916</v>
+        <v>0.6588231321423209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ss4</t>
+          <t>ss2</t>
         </is>
       </c>
       <c r="C50">
-        <v>-0.2492318959615078</v>
+        <v>-0.03079267881913101</v>
       </c>
       <c r="D50">
-        <v>0.3019428951244778</v>
+        <v>0.3743468420390448</v>
       </c>
       <c r="E50">
-        <v>302.735588585844</v>
+        <v>464.1637316325452</v>
       </c>
       <c r="F50">
-        <v>-0.825427257888484</v>
+        <v>-0.08225708183193192</v>
       </c>
       <c r="G50">
-        <v>0.409779029170831</v>
+        <v>0.9344777412245284</v>
       </c>
       <c r="H50">
-        <v>-0.792303563299306</v>
+        <v>-0.8555110859130461</v>
       </c>
       <c r="I50">
-        <v>0.3651950463291019</v>
+        <v>0.6552896092323908</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ss5</t>
+          <t>ss3</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.1851494760062131</v>
+        <v>0.4566796690207979</v>
       </c>
       <c r="D51">
-        <v>0.3498601383466404</v>
+        <v>0.3975887020463919</v>
       </c>
       <c r="E51">
-        <v>308.704758230275</v>
+        <v>457.5606672911782</v>
       </c>
       <c r="F51">
-        <v>-0.5292099776819033</v>
+        <v>1.148623355417959</v>
       </c>
       <c r="G51">
-        <v>0.5970401227461903</v>
+        <v>0.2513114289632528</v>
       </c>
       <c r="H51">
-        <v>-0.8841391112961295</v>
+        <v>-0.380669410356203</v>
       </c>
       <c r="I51">
-        <v>0.5331176113778089</v>
+        <v>1.202149395009966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ss6</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="C52">
-        <v>-0.4039781471896184</v>
+        <v>0.6216519758021528</v>
       </c>
       <c r="D52">
-        <v>0.3552548087285368</v>
+        <v>0.372046469290628</v>
       </c>
       <c r="E52">
-        <v>302.9655032979176</v>
+        <v>463.7725615610402</v>
       </c>
       <c r="F52">
-        <v>-1.137150398147919</v>
+        <v>1.670898737427724</v>
       </c>
       <c r="G52">
-        <v>0.2563739878656627</v>
+        <v>0.09541630724550501</v>
       </c>
       <c r="H52">
-        <v>-1.11267580902433</v>
+        <v>-0.1376527309088805</v>
       </c>
       <c r="I52">
-        <v>0.2868962243083319</v>
+        <v>1.353611439675893</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ss7</t>
+          <t>ss5</t>
         </is>
       </c>
       <c r="C53">
-        <v>-0.7626658559034499</v>
+        <v>-0.2324380034563649</v>
       </c>
       <c r="D53">
-        <v>0.5222540862083827</v>
+        <v>0.4818045961920808</v>
       </c>
       <c r="E53">
-        <v>299.4677569064811</v>
+        <v>460.0818814821479</v>
       </c>
       <c r="F53">
-        <v>-1.460334875386962</v>
+        <v>-0.4824321006761399</v>
       </c>
       <c r="G53">
-        <v>0.1452463571798465</v>
+        <v>0.6297284623636077</v>
       </c>
       <c r="H53">
-        <v>-1.870352304635462</v>
+        <v>-1.101818927916991</v>
       </c>
       <c r="I53">
-        <v>0.33845646276466</v>
+        <v>0.6862818117710293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>ss6</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2458867828274352</v>
+        <v>0.3577440208242301</v>
       </c>
       <c r="D54">
-        <v>0.1095611091199626</v>
+        <v>0.5287800677837319</v>
       </c>
       <c r="E54">
-        <v>309.1496856437464</v>
+        <v>465.0355206688563</v>
       </c>
       <c r="F54">
-        <v>2.244288916044146</v>
+        <v>0.676545964229774</v>
       </c>
       <c r="G54">
-        <v>0.02552106059786067</v>
+        <v>0.4990304295954981</v>
       </c>
       <c r="H54">
-        <v>0.01683720703488287</v>
+        <v>-0.7343431301085839</v>
       </c>
       <c r="I54">
-        <v>0.463454810334081</v>
+        <v>1.506395133083637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>ss7</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.03281581284772471</v>
+        <v>0.710831301296139</v>
       </c>
       <c r="D55">
-        <v>0.105798937059292</v>
+        <v>0.4228030514980574</v>
       </c>
       <c r="E55">
-        <v>303.7169764672877</v>
+        <v>468.4855944714544</v>
       </c>
       <c r="F55">
-        <v>0.3101714795994029</v>
+        <v>1.681235030772726</v>
       </c>
       <c r="G55">
-        <v>0.7566432838732358</v>
+        <v>0.09338375214209721</v>
       </c>
       <c r="H55">
-        <v>-0.1701932528374098</v>
+        <v>-0.05467824875439914</v>
       </c>
       <c r="I55">
-        <v>0.2279255872861863</v>
+        <v>1.585808492320835</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>ss8</t>
         </is>
       </c>
       <c r="C56">
-        <v>-0.1884428497917759</v>
+        <v>0.292826743170522</v>
       </c>
       <c r="D56">
-        <v>0.1834036089903562</v>
+        <v>0.6361236817217437</v>
       </c>
       <c r="E56">
-        <v>310.484361934096</v>
+        <v>463.426008637375</v>
       </c>
       <c r="F56">
-        <v>-1.027476235768538</v>
+        <v>0.4603298880147834</v>
       </c>
       <c r="G56">
-        <v>0.3049960550506722</v>
+        <v>0.6454953660235623</v>
       </c>
       <c r="H56">
-        <v>-0.5345250188439093</v>
+        <v>-1.048855819360868</v>
       </c>
       <c r="I56">
-        <v>0.1751483894405875</v>
+        <v>1.600322084719933</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="C57">
-        <v>-0.2649067179206738</v>
+        <v>-0.2943584715374546</v>
       </c>
       <c r="D57">
-        <v>0.1587065468775992</v>
+        <v>0.2868895530740879</v>
       </c>
       <c r="E57">
-        <v>311.6579050478871</v>
+        <v>419.2569041284305</v>
       </c>
       <c r="F57">
-        <v>-1.669160618339081</v>
+        <v>-1.02603412492137</v>
       </c>
       <c r="G57">
-        <v>0.09608970220299448</v>
+        <v>0.305467105106337</v>
       </c>
       <c r="H57">
-        <v>-0.5733178913008012</v>
+        <v>-0.9156089796452163</v>
       </c>
       <c r="I57">
-        <v>0.05632603982299498</v>
+        <v>0.2614860343065411</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.02373952161080266</v>
+        <v>0.1917628450798847</v>
       </c>
       <c r="D58">
-        <v>0.1192281763275161</v>
+        <v>0.1611517413520765</v>
       </c>
       <c r="E58">
-        <v>311.1619698932666</v>
+        <v>103.6715742415791</v>
       </c>
       <c r="F58">
-        <v>0.1991099951540896</v>
+        <v>1.189952050601368</v>
       </c>
       <c r="G58">
-        <v>0.842306744464044</v>
+        <v>0.2367831632372278</v>
       </c>
       <c r="H58">
-        <v>-0.2423031895720431</v>
+        <v>-0.1698762190802197</v>
       </c>
       <c r="I58">
-        <v>0.2648156129668164</v>
+        <v>0.4975225554522927</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="C59">
-        <v>-0.04206044321035889</v>
+        <v>0.1257028065511412</v>
       </c>
       <c r="D59">
-        <v>0.1287357473960955</v>
+        <v>0.1225159113334293</v>
       </c>
       <c r="E59">
-        <v>290.8676876337946</v>
+        <v>468.1913050228796</v>
       </c>
       <c r="F59">
-        <v>-0.3267192218253636</v>
+        <v>1.02601209249498</v>
       </c>
       <c r="G59">
-        <v>0.7441152366941269</v>
+        <v>0.305415679200823</v>
       </c>
       <c r="H59">
-        <v>-0.2945602548646099</v>
+        <v>-0.1230862802559874</v>
       </c>
       <c r="I59">
-        <v>0.2341668538710682</v>
+        <v>0.3519892963671037</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.2898516461784472</v>
+        <v>0.04581864075652479</v>
       </c>
       <c r="D60">
-        <v>0.2436669923378198</v>
+        <v>0.1368840764301263</v>
       </c>
       <c r="E60">
-        <v>307.3464551560783</v>
+        <v>458.9616701548123</v>
       </c>
       <c r="F60">
-        <v>1.189540049710947</v>
+        <v>0.3347258640409744</v>
       </c>
       <c r="G60">
-        <v>0.235145350722716</v>
+        <v>0.737984805824079</v>
       </c>
       <c r="H60">
-        <v>-0.2129792590129806</v>
+        <v>-0.1968785397433108</v>
       </c>
       <c r="I60">
-        <v>0.7971000428529461</v>
+        <v>0.2913736276892799</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.2461691098927548</v>
+        <v>0.06103631413534784</v>
       </c>
       <c r="D61">
-        <v>0.2347395287586792</v>
+        <v>0.1130474168072758</v>
       </c>
       <c r="E61">
-        <v>301.2660164338362</v>
+        <v>470.6107840414444</v>
       </c>
       <c r="F61">
-        <v>1.048690483424399</v>
+        <v>0.5399178137736936</v>
       </c>
       <c r="G61">
-        <v>0.2951611497403613</v>
+        <v>0.5895090968712595</v>
       </c>
       <c r="H61">
-        <v>-0.2227848257188881</v>
+        <v>-0.1754419561905695</v>
       </c>
       <c r="I61">
-        <v>0.6232356320231051</v>
+        <v>0.2739963744910129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="C62">
-        <v>-0.08091596127404925</v>
+        <v>-0.3071780386779676</v>
       </c>
       <c r="D62">
-        <v>0.1656134593490152</v>
+        <v>0.4187836197669653</v>
       </c>
       <c r="E62">
-        <v>51.03916993604257</v>
+        <v>426.7724754598012</v>
       </c>
       <c r="F62">
-        <v>-0.4885832443335796</v>
+        <v>-0.7335006055129345</v>
       </c>
       <c r="G62">
-        <v>0.6272295597475857</v>
+        <v>0.4636558911451026</v>
       </c>
       <c r="H62">
-        <v>-0.3990319561571715</v>
+        <v>-1.076763102238211</v>
       </c>
       <c r="I62">
-        <v>0.2562634182084488</v>
+        <v>0.4777609870842074</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.9242447466216406</v>
+        <v>0.001547500977064393</v>
       </c>
       <c r="D63">
-        <v>0.36012182575541</v>
+        <v>0.08591955709210584</v>
       </c>
       <c r="E63">
-        <v>3.655753847411486</v>
+        <v>469.8538447098854</v>
       </c>
       <c r="F63">
-        <v>2.566478009720454</v>
+        <v>0.01801104462637616</v>
       </c>
       <c r="G63">
-        <v>0.06795618094415351</v>
+        <v>0.9856376880881169</v>
       </c>
       <c r="H63">
-        <v>0.2323931087977209</v>
+        <v>-0.1765652870758163</v>
       </c>
       <c r="I63">
-        <v>1.576632022519839</v>
+        <v>0.1770958054441392</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ss1</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="C64">
-        <v>1.230229509567997</v>
+        <v>-0.08346946375342706</v>
       </c>
       <c r="D64">
-        <v>0.4684337968555466</v>
+        <v>0.3507197126700231</v>
       </c>
       <c r="E64">
-        <v>300.8751504309013</v>
+        <v>423.6873352053414</v>
       </c>
       <c r="F64">
-        <v>2.626261208790127</v>
+        <v>-0.2379947882540604</v>
       </c>
       <c r="G64">
-        <v>0.009074639437384492</v>
+        <v>0.81200018898728</v>
       </c>
       <c r="H64">
-        <v>0.3128768293263516</v>
+        <v>-0.8039932739352746</v>
       </c>
       <c r="I64">
-        <v>2.138696556873741</v>
+        <v>0.6008214097037602</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ss2</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.2568557660138817</v>
+        <v>-0.2098086845109533</v>
       </c>
       <c r="D65">
-        <v>0.413149200516467</v>
+        <v>0.1462629301240202</v>
       </c>
       <c r="E65">
-        <v>299.2732725425391</v>
+        <v>469.5539856426622</v>
       </c>
       <c r="F65">
-        <v>-0.6217021978810392</v>
+        <v>-1.434462473389881</v>
       </c>
       <c r="G65">
-        <v>0.5346110040162471</v>
+        <v>0.1521059779126847</v>
       </c>
       <c r="H65">
-        <v>-1.078233440312897</v>
+        <v>-0.5073866142352437</v>
       </c>
       <c r="I65">
-        <v>0.619058509602279</v>
+        <v>0.03642818950753472</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ss3</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.005847516445089986</v>
+        <v>1.037262729216346</v>
       </c>
       <c r="D66">
-        <v>0.38171451532561</v>
+        <v>0.3722748321572245</v>
       </c>
       <c r="E66">
-        <v>305.8114635782221</v>
+        <v>2.971316844647954</v>
       </c>
       <c r="F66">
-        <v>0.01531908326855724</v>
+        <v>2.786282175471572</v>
       </c>
       <c r="G66">
-        <v>0.9877876072461564</v>
+        <v>0.0693857770131919</v>
       </c>
       <c r="H66">
-        <v>-0.7695640373869607</v>
+        <v>0.2856917960951172</v>
       </c>
       <c r="I66">
-        <v>0.6675427985893866</v>
+        <v>1.753775211591307</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ss4</t>
+          <t>ss1</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.1007756291605632</v>
+        <v>-0.03643405566980058</v>
       </c>
       <c r="D67">
-        <v>0.3243099885697711</v>
+        <v>0.4389599944521287</v>
       </c>
       <c r="E67">
-        <v>303.0283694721241</v>
+        <v>461.3078437640708</v>
       </c>
       <c r="F67">
-        <v>0.3107385918176326</v>
+        <v>-0.08300085686686406</v>
       </c>
       <c r="G67">
-        <v>0.7562129867133393</v>
+        <v>0.9338868613061927</v>
       </c>
       <c r="H67">
-        <v>-0.5166593623343072</v>
+        <v>-0.8895206310817114</v>
       </c>
       <c r="I67">
-        <v>0.7407831192271974</v>
+        <v>0.9199511166184117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ss5</t>
+          <t>ss2</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.2613428127216052</v>
+        <v>-0.08770993123236505</v>
       </c>
       <c r="D68">
-        <v>0.3358772795762792</v>
+        <v>0.358526644153173</v>
       </c>
       <c r="E68">
-        <v>304.5145028031357</v>
+        <v>463.0880985282517</v>
       </c>
       <c r="F68">
-        <v>-0.7780901793991489</v>
+        <v>-0.2446399247105686</v>
       </c>
       <c r="G68">
-        <v>0.4371199836563215</v>
+        <v>0.8068436076804917</v>
       </c>
       <c r="H68">
-        <v>-0.8950902909756037</v>
+        <v>-0.823537281582421</v>
       </c>
       <c r="I68">
-        <v>0.3932120204458459</v>
+        <v>0.5770026979188193</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ss6</t>
+          <t>ss3</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.3823847573237338</v>
+        <v>0.897610720408048</v>
       </c>
       <c r="D69">
-        <v>0.3431248998142659</v>
+        <v>0.4505361071029508</v>
       </c>
       <c r="E69">
-        <v>305.4217079159703</v>
+        <v>454.5055680372249</v>
       </c>
       <c r="F69">
-        <v>-1.114418561668708</v>
+        <v>1.992316944761405</v>
       </c>
       <c r="G69">
-        <v>0.265975840793027</v>
+        <v>0.04693401843590791</v>
       </c>
       <c r="H69">
-        <v>-1.079929917376834</v>
+        <v>-0.01025503441041653</v>
       </c>
       <c r="I69">
-        <v>0.2910029782468126</v>
+        <v>1.844388131161321</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ss7</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.2081360473322462</v>
+        <v>0.196796701211319</v>
       </c>
       <c r="D70">
-        <v>0.4443232429739899</v>
+        <v>0.3935374709024235</v>
       </c>
       <c r="E70">
-        <v>298.6131357074973</v>
+        <v>461.738769889405</v>
       </c>
       <c r="F70">
-        <v>-0.4684338499582617</v>
+        <v>0.5000710625091003</v>
       </c>
       <c r="G70">
-        <v>0.6398161157351145</v>
+        <v>0.6172632741647239</v>
       </c>
       <c r="H70">
-        <v>-1.07898417987663</v>
+        <v>-0.5494980248319382</v>
       </c>
       <c r="I70">
-        <v>0.7463088327471763</v>
+        <v>1.0127458277498</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ss8</t>
+          <t>ss5</t>
         </is>
       </c>
       <c r="C71">
-        <v>-0.7773930980259337</v>
+        <v>-0.06340510898582954</v>
       </c>
       <c r="D71">
-        <v>0.5238664396068834</v>
+        <v>0.4602580836212906</v>
       </c>
       <c r="E71">
-        <v>298.2536864979934</v>
+        <v>462.6202644120817</v>
       </c>
       <c r="F71">
-        <v>-1.483952853726038</v>
+        <v>-0.1377599030677765</v>
       </c>
       <c r="G71">
-        <v>0.1388774323826338</v>
+        <v>0.8904901129266859</v>
       </c>
       <c r="H71">
-        <v>-1.828140024691209</v>
+        <v>-0.9858567393338674</v>
       </c>
       <c r="I71">
-        <v>0.3069567228086447</v>
+        <v>0.8075282013216541</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
+          <t>ss6</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.2464725149344351</v>
+        <v>0.3987714528040195</v>
       </c>
       <c r="D72">
-        <v>0.1104337212555731</v>
+        <v>0.4771253560979424</v>
       </c>
       <c r="E72">
-        <v>308.1327924556148</v>
+        <v>462.7454632244518</v>
       </c>
       <c r="F72">
-        <v>2.231859183337958</v>
+        <v>0.8357792091899665</v>
       </c>
       <c r="G72">
-        <v>0.02634303725309236</v>
+        <v>0.4037104590894136</v>
       </c>
       <c r="H72">
-        <v>0.03596144205160846</v>
+        <v>-0.5662298951104073</v>
       </c>
       <c r="I72">
-        <v>0.4639996784794094</v>
+        <v>1.322375567893999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>percentasian</t>
+          <t>ss7</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.04779851703471012</v>
+        <v>1.011909172218993</v>
       </c>
       <c r="D73">
-        <v>0.1061580200505629</v>
+        <v>0.4529115068286946</v>
       </c>
       <c r="E73">
-        <v>302.5280701100973</v>
+        <v>465.1573995529652</v>
       </c>
       <c r="F73">
-        <v>0.4502581812654736</v>
+        <v>2.234231537424217</v>
       </c>
       <c r="G73">
-        <v>0.6528467733077792</v>
+        <v>0.02594220691841168</v>
       </c>
       <c r="H73">
-        <v>-0.1743682744101016</v>
+        <v>0.1012674667201661</v>
       </c>
       <c r="I73">
-        <v>0.274024154047829</v>
+        <v>1.906714132988521</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>ss8</t>
         </is>
       </c>
       <c r="C74">
-        <v>-0.1461425079572927</v>
+        <v>0.144166914589122</v>
       </c>
       <c r="D74">
-        <v>0.1853281864898604</v>
+        <v>0.5833132001252952</v>
       </c>
       <c r="E74">
-        <v>310.0569363809363</v>
+        <v>463.1221172986201</v>
       </c>
       <c r="F74">
-        <v>-0.7885606109100322</v>
+        <v>0.2471518123679613</v>
       </c>
       <c r="G74">
-        <v>0.4309713622733931</v>
+        <v>0.8049002611262287</v>
       </c>
       <c r="H74">
-        <v>-0.5227924949496681</v>
+        <v>-1.082565392024011</v>
       </c>
       <c r="I74">
-        <v>0.2049527346144591</v>
+        <v>1.285324716686956</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>ss9</t>
         </is>
       </c>
       <c r="C75">
-        <v>-0.235146570442691</v>
+        <v>-0.917044143508163</v>
       </c>
       <c r="D75">
-        <v>0.1604220925974449</v>
+        <v>1.302559066958208</v>
       </c>
       <c r="E75">
-        <v>311.0745452764994</v>
+        <v>453.0862925589789</v>
       </c>
       <c r="F75">
-        <v>-1.465799171643746</v>
+        <v>-0.7040326744258009</v>
       </c>
       <c r="G75">
-        <v>0.1437130633060289</v>
+        <v>0.4817740944611238</v>
       </c>
       <c r="H75">
-        <v>-0.5533981237727951</v>
+        <v>-3.369824304110402</v>
       </c>
       <c r="I75">
-        <v>0.075477905957581</v>
+        <v>1.765487742948332</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>ss10</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.0362791891546199</v>
+        <v>0.3049391440298462</v>
       </c>
       <c r="D76">
-        <v>0.1196980035578465</v>
+        <v>1.110549642615945</v>
       </c>
       <c r="E76">
-        <v>310.1283590585932</v>
+        <v>466.7513725745757</v>
       </c>
       <c r="F76">
-        <v>0.3030893421466905</v>
+        <v>0.2745839828569479</v>
       </c>
       <c r="G76">
-        <v>0.7620249842309224</v>
+        <v>0.7837573639291632</v>
       </c>
       <c r="H76">
-        <v>-0.188688170967089</v>
+        <v>-1.852786744408346</v>
       </c>
       <c r="I76">
-        <v>0.269750450751371</v>
+        <v>2.560865851641403</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3870,460 +3549,460 @@
         </is>
       </c>
       <c r="C77">
-        <v>-0.02561144419666241</v>
+        <v>-0.3082259673226507</v>
       </c>
       <c r="D77">
-        <v>0.1310194507513368</v>
+        <v>0.2876134697461236</v>
       </c>
       <c r="E77">
-        <v>292.5878182842204</v>
+        <v>417.119446449866</v>
       </c>
       <c r="F77">
-        <v>-0.1954781831994597</v>
+        <v>-1.071667358259409</v>
       </c>
       <c r="G77">
-        <v>0.8451542964897799</v>
+        <v>0.2844891227813685</v>
       </c>
       <c r="H77">
-        <v>-0.2991940213788358</v>
+        <v>-0.8685188832698829</v>
       </c>
       <c r="I77">
-        <v>0.234207343157654</v>
+        <v>0.2685152613667811</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.349331419304537</v>
+        <v>0.1790940461712172</v>
       </c>
       <c r="D78">
-        <v>0.2434530512102507</v>
+        <v>0.1606091872905293</v>
       </c>
       <c r="E78">
-        <v>306.6496799740489</v>
+        <v>102.371965993769</v>
       </c>
       <c r="F78">
-        <v>1.434902612918364</v>
+        <v>1.115092163733139</v>
       </c>
       <c r="G78">
-        <v>0.1523339419669436</v>
+        <v>0.2674218143397098</v>
       </c>
       <c r="H78">
-        <v>-0.1065578596107732</v>
+        <v>-0.1628186034607251</v>
       </c>
       <c r="I78">
-        <v>0.7964343676736534</v>
+        <v>0.4901761085672056</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>schoollevelMS</t>
+          <t>percenttwoormoreraces</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.3064608509177772</v>
+        <v>0.1167733068062933</v>
       </c>
       <c r="D79">
-        <v>0.2352720416508997</v>
+        <v>0.1225920849110758</v>
       </c>
       <c r="E79">
-        <v>300.8585929339538</v>
+        <v>465.7183325699538</v>
       </c>
       <c r="F79">
-        <v>1.302580828420355</v>
+        <v>0.9525354503188093</v>
       </c>
       <c r="G79">
-        <v>0.1937140941682198</v>
+        <v>0.3413195951236628</v>
       </c>
       <c r="H79">
-        <v>-0.1316507814749432</v>
+        <v>-0.09627200224282406</v>
       </c>
       <c r="I79">
-        <v>0.7428793033540159</v>
+        <v>0.3797325976924827</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cntycaseschange</t>
+          <t>percentasian</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.0822108829779777</v>
+        <v>0.04002661012564143</v>
       </c>
       <c r="D80">
-        <v>0.1661674763321673</v>
+        <v>0.13727837791132</v>
       </c>
       <c r="E80">
-        <v>51.34060638639097</v>
+        <v>455.0076641446987</v>
       </c>
       <c r="F80">
-        <v>-0.4947471357971333</v>
+        <v>0.2915725748995817</v>
       </c>
       <c r="G80">
-        <v>0.6228892726074567</v>
+        <v>0.7707463254265103</v>
       </c>
       <c r="H80">
-        <v>-0.4258892403898292</v>
+        <v>-0.2119688201726174</v>
       </c>
       <c r="I80">
-        <v>0.2322929870432801</v>
+        <v>0.3292078866695988</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.9445271943056305</v>
+        <v>0.0487721256466138</v>
       </c>
       <c r="D81">
-        <v>0.3731760572559117</v>
+        <v>0.1127058219343928</v>
       </c>
       <c r="E81">
-        <v>3.61447729696823</v>
+        <v>468.9024867541668</v>
       </c>
       <c r="F81">
-        <v>2.531049824715591</v>
+        <v>0.4327382987810918</v>
       </c>
       <c r="G81">
-        <v>0.07118266288120408</v>
+        <v>0.6654038650746426</v>
       </c>
       <c r="H81">
-        <v>0.2673111094425235</v>
+        <v>-0.1659311377485717</v>
       </c>
       <c r="I81">
-        <v>1.719485347296794</v>
+        <v>0.2634488718508154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ss1</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="C82">
-        <v>1.245099183635833</v>
+        <v>-0.329376693221871</v>
       </c>
       <c r="D82">
-        <v>0.5031234438619983</v>
+        <v>0.418953253683212</v>
       </c>
       <c r="E82">
-        <v>299.2001542291063</v>
+        <v>423.2637040516491</v>
       </c>
       <c r="F82">
-        <v>2.474738950899197</v>
+        <v>-0.7861896054659273</v>
       </c>
       <c r="G82">
-        <v>0.01388748569888324</v>
+        <v>0.432196330627683</v>
       </c>
       <c r="H82">
-        <v>0.222364395750175</v>
+        <v>-1.10000471762022</v>
       </c>
       <c r="I82">
-        <v>2.158108299591714</v>
+        <v>0.5311245455100064</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ss2</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.009399831078943049</v>
+        <v>0.008147425381542055</v>
       </c>
       <c r="D83">
-        <v>0.4128284760638143</v>
+        <v>0.08644489527502935</v>
       </c>
       <c r="E83">
-        <v>301.4919415082504</v>
+        <v>467.848927862994</v>
       </c>
       <c r="F83">
-        <v>0.02276933793077307</v>
+        <v>0.09424993061326012</v>
       </c>
       <c r="G83">
-        <v>0.9818493285972396</v>
+        <v>0.9249509729983112</v>
       </c>
       <c r="H83">
-        <v>-0.8557526486193839</v>
+        <v>-0.1766431128715042</v>
       </c>
       <c r="I83">
-        <v>0.8171297744621602</v>
+        <v>0.176137188104066</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ss3</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="C84">
-        <v>-0.2611218134956643</v>
+        <v>-0.0965112688739217</v>
       </c>
       <c r="D84">
-        <v>0.3796611657105795</v>
+        <v>0.3511060384336605</v>
       </c>
       <c r="E84">
-        <v>305.2389444924603</v>
+        <v>420.6281607036498</v>
       </c>
       <c r="F84">
-        <v>-0.68777593570031</v>
+        <v>-0.2748778383432929</v>
       </c>
       <c r="G84">
-        <v>0.4921161866203829</v>
+        <v>0.7835450558216493</v>
       </c>
       <c r="H84">
-        <v>-1.007918257285262</v>
+        <v>-0.7822690476771476</v>
       </c>
       <c r="I84">
-        <v>0.3982341580861368</v>
+        <v>0.6467879467578</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ss4</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.4566896846756437</v>
+        <v>-0.2249616690393218</v>
       </c>
       <c r="D85">
-        <v>0.3902907496904146</v>
+        <v>0.1466280467112561</v>
       </c>
       <c r="E85">
-        <v>304.9520164189885</v>
+        <v>467.063957971607</v>
       </c>
       <c r="F85">
-        <v>1.170126847838177</v>
+        <v>-1.534233552754899</v>
       </c>
       <c r="G85">
-        <v>0.2428635814603371</v>
+        <v>0.1256492823605248</v>
       </c>
       <c r="H85">
-        <v>-0.394720525716212</v>
+        <v>-0.5026838240846636</v>
       </c>
       <c r="I85">
-        <v>1.137778952847658</v>
+        <v>0.0597880691792262</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ss5</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="C86">
-        <v>-0.2620583838794435</v>
+        <v>1.079448205383397</v>
       </c>
       <c r="D86">
-        <v>0.3003686420738512</v>
+        <v>0.3483101483423587</v>
       </c>
       <c r="E86">
-        <v>302.7221633179396</v>
+        <v>2.892193983614744</v>
       </c>
       <c r="F86">
-        <v>-0.8724558664649541</v>
+        <v>3.099100644987217</v>
       </c>
       <c r="G86">
-        <v>0.3836512004677323</v>
+        <v>0.05599177134338255</v>
       </c>
       <c r="H86">
-        <v>-0.9247136587627589</v>
+        <v>0.3873380263922549</v>
       </c>
       <c r="I86">
-        <v>0.324190129806607</v>
+        <v>1.757467491079356</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ss6</t>
+          <t>ss4</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.6686323007634248</v>
+        <v>-0.1044377432513571</v>
       </c>
       <c r="D87">
-        <v>0.35723011488972</v>
+        <v>0.5330812660048042</v>
       </c>
       <c r="E87">
-        <v>304.3874338307749</v>
+        <v>471.9464419285889</v>
       </c>
       <c r="F87">
-        <v>-1.871713142017261</v>
+        <v>-0.1959133623923222</v>
       </c>
       <c r="G87">
-        <v>0.0622052216519151</v>
+        <v>0.8447623030959716</v>
       </c>
       <c r="H87">
-        <v>-1.412294366105705</v>
+        <v>-1.183097789994072</v>
       </c>
       <c r="I87">
-        <v>0.01800030821982512</v>
+        <v>0.9783367498557574</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ss7</t>
+          <t>ss5</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.2328469835283109</v>
+        <v>1.094951418197993</v>
       </c>
       <c r="D88">
-        <v>0.4057799094542798</v>
+        <v>0.3938989184385082</v>
       </c>
       <c r="E88">
-        <v>298.2445123083244</v>
+        <v>475.8320952379011</v>
       </c>
       <c r="F88">
-        <v>0.5738258058203503</v>
+        <v>2.779777671232491</v>
       </c>
       <c r="G88">
-        <v>0.5665181571250247</v>
+        <v>0.005655077426754094</v>
       </c>
       <c r="H88">
-        <v>-0.561902816653414</v>
+        <v>0.1813414777109832</v>
       </c>
       <c r="I88">
-        <v>1.05319520517475</v>
+        <v>1.940101748851468</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ss8</t>
+          <t>percentblackorafricanamerican</t>
         </is>
       </c>
       <c r="C89">
-        <v>-0.8233616983060092</v>
+        <v>-0.2623962651507834</v>
       </c>
       <c r="D89">
-        <v>0.4821667613890126</v>
+        <v>0.2837489087181866</v>
       </c>
       <c r="E89">
-        <v>297.6594467192263</v>
+        <v>419.7464664511725</v>
       </c>
       <c r="F89">
-        <v>-1.707628489226615</v>
+        <v>-0.9247481033006889</v>
       </c>
       <c r="G89">
-        <v>0.08874797797433839</v>
+        <v>0.3556282729537458</v>
       </c>
       <c r="H89">
-        <v>-1.746891627418626</v>
+        <v>-0.8281263510987882</v>
       </c>
       <c r="I89">
-        <v>0.1057977920009807</v>
+        <v>0.3620751174161355</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ss9</t>
+          <t>cntycaseschange</t>
         </is>
       </c>
       <c r="C90">
-        <v>-0.3952034567764724</v>
+        <v>0.1619793150783323</v>
       </c>
       <c r="D90">
-        <v>0.9590346940376023</v>
+        <v>0.1581714468889892</v>
       </c>
       <c r="E90">
-        <v>295.3915094848688</v>
+        <v>102.6432576197259</v>
       </c>
       <c r="F90">
-        <v>-0.4120846297151551</v>
+        <v>1.02407430838017</v>
       </c>
       <c r="G90">
-        <v>0.6805762752103817</v>
+        <v>0.3082076434708048</v>
       </c>
       <c r="H90">
-        <v>-2.243477998319585</v>
+        <v>-0.1526838839732971</v>
       </c>
       <c r="I90">
-        <v>1.334353334209698</v>
+        <v>0.4643022928394206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4332,31 +4011,31 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.2638702723994821</v>
+        <v>0.1387387884075893</v>
       </c>
       <c r="D91">
-        <v>0.1100611318628322</v>
+        <v>0.1216210012886465</v>
       </c>
       <c r="E91">
-        <v>307.2196785491631</v>
+        <v>473.6041762621229</v>
       </c>
       <c r="F91">
-        <v>2.397488267959484</v>
+        <v>1.14074696752674</v>
       </c>
       <c r="G91">
-        <v>0.0171047475372586</v>
+        <v>0.2545517472346522</v>
       </c>
       <c r="H91">
-        <v>0.03131807964961131</v>
+        <v>-0.114845545518176</v>
       </c>
       <c r="I91">
-        <v>0.4856834178222433</v>
+        <v>0.3810257607014042</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4365,1279 +4044,190 @@
         </is>
       </c>
       <c r="C92">
-        <v>0.05111834573507081</v>
+        <v>0.06077145188397522</v>
       </c>
       <c r="D92">
-        <v>0.1058294211236666</v>
+        <v>0.1358153046613869</v>
       </c>
       <c r="E92">
-        <v>301.2436167409844</v>
+        <v>462.4027482343766</v>
       </c>
       <c r="F92">
-        <v>0.4830258466153439</v>
+        <v>0.4474565810936396</v>
       </c>
       <c r="G92">
-        <v>0.6294282350164404</v>
+        <v>0.6547549647914508</v>
       </c>
       <c r="H92">
-        <v>-0.1474607811314075</v>
+        <v>-0.197014583625544</v>
       </c>
       <c r="I92">
-        <v>0.2749037543227097</v>
+        <v>0.3568727533178747</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>percentwhite</t>
+          <t>rplthemes</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.1646868962274526</v>
+        <v>0.06443388546828754</v>
       </c>
       <c r="D93">
-        <v>0.1835054789398752</v>
+        <v>0.1094357461521627</v>
       </c>
       <c r="E93">
-        <v>309.0982723598931</v>
+        <v>477.2768359128696</v>
       </c>
       <c r="F93">
-        <v>-0.8974494776878656</v>
+        <v>0.5887828039176225</v>
       </c>
       <c r="G93">
-        <v>0.3701775981872214</v>
+        <v>0.5562855265182716</v>
       </c>
       <c r="H93">
-        <v>-0.4955892032030743</v>
+        <v>-0.1585190265993954</v>
       </c>
       <c r="I93">
-        <v>0.1820975338784321</v>
+        <v>0.2727239918154406</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>percentfreereducedlunch</t>
+          <t>percentwhite</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.2338123278334559</v>
+        <v>-0.2572576228780366</v>
       </c>
       <c r="D94">
-        <v>0.1579470500326981</v>
+        <v>0.4132127231348698</v>
       </c>
       <c r="E94">
-        <v>309.9392699715689</v>
+        <v>428.838110801093</v>
       </c>
       <c r="F94">
-        <v>-1.480320954301155</v>
+        <v>-0.6225791425935099</v>
       </c>
       <c r="G94">
-        <v>0.139803381922805</v>
+        <v>0.533892025429658</v>
       </c>
       <c r="H94">
-        <v>-0.5134523786636653</v>
+        <v>-1.097851220747045</v>
       </c>
       <c r="I94">
-        <v>0.08377036447647154</v>
+        <v>0.560781006751793</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rplthemes</t>
+          <t>derivedtotalenrolled</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.05243330447992333</v>
+        <v>0.02775411962724058</v>
       </c>
       <c r="D95">
-        <v>0.1199955159263694</v>
+        <v>0.08432751528016472</v>
       </c>
       <c r="E95">
-        <v>309.4188656815185</v>
+        <v>476.0382166584755</v>
       </c>
       <c r="F95">
-        <v>0.4369605320260216</v>
+        <v>0.3291229385216907</v>
       </c>
       <c r="G95">
-        <v>0.6624447581429929</v>
+        <v>0.7422075159524921</v>
       </c>
       <c r="H95">
-        <v>-0.1780608891896219</v>
+        <v>-0.1320057831991024</v>
       </c>
       <c r="I95">
-        <v>0.2926234428601105</v>
+        <v>0.1998095318969806</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>percentblackorafricanamerican</t>
+          <t>percenthispaniclatino</t>
         </is>
       </c>
       <c r="C96">
-        <v>-0.07163996015905265</v>
+        <v>-0.05485730299234397</v>
       </c>
       <c r="D96">
-        <v>0.1288447806466846</v>
+        <v>0.3467785566039912</v>
       </c>
       <c r="E96">
-        <v>295.443014738353</v>
+        <v>425.9854732579997</v>
       </c>
       <c r="F96">
-        <v>-0.5560175569354431</v>
+        <v>-0.1581911624800638</v>
       </c>
       <c r="G96">
-        <v>0.5786196890687467</v>
+        <v>0.8743811287856547</v>
       </c>
       <c r="H96">
-        <v>-0.3342968566753575</v>
+        <v>-0.7756026867670919</v>
       </c>
       <c r="I96">
-        <v>0.2221274158816584</v>
+        <v>0.7183556897231897</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>schoollevelHS</t>
+          <t>percentfreereducedlunch</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.391044788019289</v>
+        <v>-0.2267490764704723</v>
       </c>
       <c r="D97">
-        <v>0.2458874536340462</v>
+        <v>0.1441816715048646</v>
       </c>
       <c r="E97">
-        <v>306.4043377019418</v>
+        <v>475.7690173040422</v>
       </c>
       <c r="F97">
-        <v>1.590340549059816</v>
+        <v>-1.572662281577322</v>
       </c>
       <c r="G97">
-        <v>0.1127892657152508</v>
+        <v>0.1164617809708563</v>
       </c>
       <c r="H97">
-        <v>-0.0671744464590317</v>
+        <v>-0.4976234588130926</v>
       </c>
       <c r="I97">
-        <v>0.9136146743299711</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>schoollevelMS</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>0.2832189686504931</v>
-      </c>
-      <c r="D98">
-        <v>0.2359034098514499</v>
-      </c>
-      <c r="E98">
-        <v>299.7766746661048</v>
-      </c>
-      <c r="F98">
-        <v>1.200571745990607</v>
-      </c>
-      <c r="G98">
-        <v>0.2308651827991921</v>
-      </c>
-      <c r="H98">
-        <v>-0.1526611313382874</v>
-      </c>
-      <c r="I98">
-        <v>0.7246578534937453</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>cntycaseschange</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>-0.06465930999299113</v>
-      </c>
-      <c r="D99">
-        <v>0.1657682699875586</v>
-      </c>
-      <c r="E99">
-        <v>51.34172761292914</v>
-      </c>
-      <c r="F99">
-        <v>-0.3900584231098268</v>
-      </c>
-      <c r="G99">
-        <v>0.6981069150025276</v>
-      </c>
-      <c r="H99">
-        <v>-0.4198854714730326</v>
-      </c>
-      <c r="I99">
-        <v>0.2414114597236318</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>0.9628022656284938</v>
-      </c>
-      <c r="D100">
-        <v>0.3813623413364498</v>
-      </c>
-      <c r="E100">
-        <v>3.589592494605329</v>
-      </c>
-      <c r="F100">
-        <v>2.524639067020725</v>
-      </c>
-      <c r="G100">
-        <v>0.07211603824108859</v>
-      </c>
-      <c r="H100">
-        <v>0.2725837655375069</v>
-      </c>
-      <c r="I100">
-        <v>1.777996182182988</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ss1</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>1.163719432148911</v>
-      </c>
-      <c r="D101">
-        <v>0.5253808187142793</v>
-      </c>
-      <c r="E101">
-        <v>299.8128874005816</v>
-      </c>
-      <c r="F101">
-        <v>2.21500174863023</v>
-      </c>
-      <c r="G101">
-        <v>0.02751146176058817</v>
-      </c>
-      <c r="H101">
-        <v>0.1317889417820924</v>
-      </c>
-      <c r="I101">
-        <v>2.090994651440531</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ss2</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>0.1272356045430018</v>
-      </c>
-      <c r="D102">
-        <v>0.4047904788516987</v>
-      </c>
-      <c r="E102">
-        <v>301.7086006215264</v>
-      </c>
-      <c r="F102">
-        <v>0.3143245980091753</v>
-      </c>
-      <c r="G102">
-        <v>0.7534917579778402</v>
-      </c>
-      <c r="H102">
-        <v>-0.624456053854468</v>
-      </c>
-      <c r="I102">
-        <v>0.9422131521187354</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ss3</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>-0.2394598901616874</v>
-      </c>
-      <c r="D103">
-        <v>0.3815811867103442</v>
-      </c>
-      <c r="E103">
-        <v>305.2358859544684</v>
-      </c>
-      <c r="F103">
-        <v>-0.6275463741441213</v>
-      </c>
-      <c r="G103">
-        <v>0.5307703167747249</v>
-      </c>
-      <c r="H103">
-        <v>-1.022343971338151</v>
-      </c>
-      <c r="I103">
-        <v>0.4638854161647995</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ss4</t>
-        </is>
-      </c>
-      <c r="C104">
-        <v>0.4602391654673543</v>
-      </c>
-      <c r="D104">
-        <v>0.392623986742128</v>
-      </c>
-      <c r="E104">
-        <v>305.0767915794759</v>
-      </c>
-      <c r="F104">
-        <v>1.172213570765954</v>
-      </c>
-      <c r="G104">
-        <v>0.242025881918261</v>
-      </c>
-      <c r="H104">
-        <v>-0.3779898069407092</v>
-      </c>
-      <c r="I104">
-        <v>1.325995282193734</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ss5</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>-0.1920000252826057</v>
-      </c>
-      <c r="D105">
-        <v>0.3202638370493364</v>
-      </c>
-      <c r="E105">
-        <v>300.6772810964991</v>
-      </c>
-      <c r="F105">
-        <v>-0.5995057920105674</v>
-      </c>
-      <c r="G105">
-        <v>0.5492871213138103</v>
-      </c>
-      <c r="H105">
-        <v>-0.8589683882192437</v>
-      </c>
-      <c r="I105">
-        <v>0.3727335523255995</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ss6</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>-0.7155108204667954</v>
-      </c>
-      <c r="D106">
-        <v>0.3593103616000982</v>
-      </c>
-      <c r="E106">
-        <v>307.2612528947512</v>
-      </c>
-      <c r="F106">
-        <v>-1.991344800858089</v>
-      </c>
-      <c r="G106">
-        <v>0.0473281590668292</v>
-      </c>
-      <c r="H106">
-        <v>-1.365660203976276</v>
-      </c>
-      <c r="I106">
-        <v>0.00253732698575367</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ss7</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>-0.1231630010760593</v>
-      </c>
-      <c r="D107">
-        <v>0.3899989661516503</v>
-      </c>
-      <c r="E107">
-        <v>298.2871273597253</v>
-      </c>
-      <c r="F107">
-        <v>-0.3158034040227882</v>
-      </c>
-      <c r="G107">
-        <v>0.7523725831091722</v>
-      </c>
-      <c r="H107">
-        <v>-0.869175008089617</v>
-      </c>
-      <c r="I107">
-        <v>0.6492382630557306</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ss8</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>-0.4133467309837095</v>
-      </c>
-      <c r="D108">
-        <v>0.441948519694218</v>
-      </c>
-      <c r="E108">
-        <v>297.8547815350616</v>
-      </c>
-      <c r="F108">
-        <v>-0.9352825330644892</v>
-      </c>
-      <c r="G108">
-        <v>0.3504003569843512</v>
-      </c>
-      <c r="H108">
-        <v>-1.230602945337019</v>
-      </c>
-      <c r="I108">
-        <v>0.53945142598191</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ss9</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>-0.4585946219354775</v>
-      </c>
-      <c r="D109">
-        <v>0.9642106327461926</v>
-      </c>
-      <c r="E109">
-        <v>295.5327161299901</v>
-      </c>
-      <c r="F109">
-        <v>-0.4756166405563716</v>
-      </c>
-      <c r="G109">
-        <v>0.6346988782055155</v>
-      </c>
-      <c r="H109">
-        <v>-2.429158278976642</v>
-      </c>
-      <c r="I109">
-        <v>1.478938348401716</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>percenttwoormoreraces</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>0.2595066298975772</v>
-      </c>
-      <c r="D110">
-        <v>0.1107417693178201</v>
-      </c>
-      <c r="E110">
-        <v>307.3538268848399</v>
-      </c>
-      <c r="F110">
-        <v>2.343349140041403</v>
-      </c>
-      <c r="G110">
-        <v>0.01974869830851809</v>
-      </c>
-      <c r="H110">
-        <v>0.03935387375506106</v>
-      </c>
-      <c r="I110">
-        <v>0.4920917820816467</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>percentasian</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>0.05180254063832849</v>
-      </c>
-      <c r="D111">
-        <v>0.1070093236441779</v>
-      </c>
-      <c r="E111">
-        <v>301.6949782412194</v>
-      </c>
-      <c r="F111">
-        <v>0.4840937114094816</v>
-      </c>
-      <c r="G111">
-        <v>0.6286705771373422</v>
-      </c>
-      <c r="H111">
-        <v>-0.1568214695319474</v>
-      </c>
-      <c r="I111">
-        <v>0.2711518701597906</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>percentwhite</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>-0.1737661073171174</v>
-      </c>
-      <c r="D112">
-        <v>0.1850286843942334</v>
-      </c>
-      <c r="E112">
-        <v>308.8605009803111</v>
-      </c>
-      <c r="F112">
-        <v>-0.9391306428298476</v>
-      </c>
-      <c r="G112">
-        <v>0.3483975151156963</v>
-      </c>
-      <c r="H112">
-        <v>-0.5272868128691247</v>
-      </c>
-      <c r="I112">
-        <v>0.194056023203209</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>percentfreereducedlunch</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>-0.236677664719572</v>
-      </c>
-      <c r="D113">
-        <v>0.1587552367442499</v>
-      </c>
-      <c r="E113">
-        <v>309.9959099930237</v>
-      </c>
-      <c r="F113">
-        <v>-1.490833748689833</v>
-      </c>
-      <c r="G113">
-        <v>0.1370219668729625</v>
-      </c>
-      <c r="H113">
-        <v>-0.5395442905426656</v>
-      </c>
-      <c r="I113">
-        <v>0.08028599407284376</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>rplthemes</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>0.02286671571322024</v>
-      </c>
-      <c r="D114">
-        <v>0.119518414459608</v>
-      </c>
-      <c r="E114">
-        <v>309.1945744143788</v>
-      </c>
-      <c r="F114">
-        <v>0.1913237873562002</v>
-      </c>
-      <c r="G114">
-        <v>0.8483975000063533</v>
-      </c>
-      <c r="H114">
-        <v>-0.2489568335965543</v>
-      </c>
-      <c r="I114">
-        <v>0.2545426214062962</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>percentblackorafricanamerican</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>-0.0575309079210336</v>
-      </c>
-      <c r="D115">
-        <v>0.1303035290737641</v>
-      </c>
-      <c r="E115">
-        <v>296.704821937728</v>
-      </c>
-      <c r="F115">
-        <v>-0.4415145800730054</v>
-      </c>
-      <c r="G115">
-        <v>0.6591620961543974</v>
-      </c>
-      <c r="H115">
-        <v>-0.3162605634835158</v>
-      </c>
-      <c r="I115">
-        <v>0.1888629570821694</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>schoollevelHS</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>0.3254974628191137</v>
-      </c>
-      <c r="D116">
-        <v>0.2463580747467621</v>
-      </c>
-      <c r="E116">
-        <v>306.4082487880934</v>
-      </c>
-      <c r="F116">
-        <v>1.321237240361214</v>
-      </c>
-      <c r="G116">
-        <v>0.1874080374019437</v>
-      </c>
-      <c r="H116">
-        <v>-0.1616647097704486</v>
-      </c>
-      <c r="I116">
-        <v>0.8008176094777707</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>schoollevelMS</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>0.2451386517157441</v>
-      </c>
-      <c r="D117">
-        <v>0.2364890325850488</v>
-      </c>
-      <c r="E117">
-        <v>300.0264999518897</v>
-      </c>
-      <c r="F117">
-        <v>1.036575138542988</v>
-      </c>
-      <c r="G117">
-        <v>0.3007686223458441</v>
-      </c>
-      <c r="H117">
-        <v>-0.223509098540499</v>
-      </c>
-      <c r="I117">
-        <v>0.7052488566431703</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>cntycaseschange</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>-0.07066339362638381</v>
-      </c>
-      <c r="D118">
-        <v>0.1658016579437788</v>
-      </c>
-      <c r="E118">
-        <v>50.82381849049641</v>
-      </c>
-      <c r="F118">
-        <v>-0.4261923222163728</v>
-      </c>
-      <c r="G118">
-        <v>0.6717673897353145</v>
-      </c>
-      <c r="H118">
-        <v>-0.3462840722735976</v>
-      </c>
-      <c r="I118">
-        <v>0.2618725088773809</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>1.007273339280702</v>
-      </c>
-      <c r="D119">
-        <v>0.3501999357497746</v>
-      </c>
-      <c r="E119">
-        <v>3.172470899198462</v>
-      </c>
-      <c r="F119">
-        <v>2.876280765512248</v>
-      </c>
-      <c r="G119">
-        <v>0.05960262529393068</v>
-      </c>
-      <c r="H119">
-        <v>0.3344572786538703</v>
-      </c>
-      <c r="I119">
-        <v>1.670785315256443</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ss3</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>-0.3189595705384181</v>
-      </c>
-      <c r="D120">
-        <v>0.2847241419242772</v>
-      </c>
-      <c r="E120">
-        <v>308.4388180221065</v>
-      </c>
-      <c r="F120">
-        <v>-1.12024069466946</v>
-      </c>
-      <c r="G120">
-        <v>0.2634827249448746</v>
-      </c>
-      <c r="H120">
-        <v>-0.8702382115366435</v>
-      </c>
-      <c r="I120">
-        <v>0.2592553230240116</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ss5</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>-0.9330978595663808</v>
-      </c>
-      <c r="D121">
-        <v>0.3887967269619108</v>
-      </c>
-      <c r="E121">
-        <v>310.629643970146</v>
-      </c>
-      <c r="F121">
-        <v>-2.399963258069797</v>
-      </c>
-      <c r="G121">
-        <v>0.01698513286308198</v>
-      </c>
-      <c r="H121">
-        <v>-1.690428423429527</v>
-      </c>
-      <c r="I121">
-        <v>-0.1083078895178104</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>percenttwoormoreraces</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>0.2497937783222982</v>
-      </c>
-      <c r="D122">
-        <v>0.1096569986592566</v>
-      </c>
-      <c r="E122">
-        <v>314.8324654261288</v>
-      </c>
-      <c r="F122">
-        <v>2.277955637820223</v>
-      </c>
-      <c r="G122">
-        <v>0.02339915359643622</v>
-      </c>
-      <c r="H122">
-        <v>0.04079408245403552</v>
-      </c>
-      <c r="I122">
-        <v>0.4660123699072622</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>percentasian</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>0.002823085931828985</v>
-      </c>
-      <c r="D123">
-        <v>0.1053894874774536</v>
-      </c>
-      <c r="E123">
-        <v>308.8848183191699</v>
-      </c>
-      <c r="F123">
-        <v>0.0267871682404086</v>
-      </c>
-      <c r="G123">
-        <v>0.9786467855502998</v>
-      </c>
-      <c r="H123">
-        <v>-0.1880002606029876</v>
-      </c>
-      <c r="I123">
-        <v>0.2063576574958056</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>percentwhite</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>-0.2065548032647356</v>
-      </c>
-      <c r="D124">
-        <v>0.1827870335999905</v>
-      </c>
-      <c r="E124">
-        <v>315.4356638100126</v>
-      </c>
-      <c r="F124">
-        <v>-1.130029845096991</v>
-      </c>
-      <c r="G124">
-        <v>0.2593221860764572</v>
-      </c>
-      <c r="H124">
-        <v>-0.5803615380229921</v>
-      </c>
-      <c r="I124">
-        <v>0.1443665429860085</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>percentfreereducedlunch</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>-0.2842826585855172</v>
-      </c>
-      <c r="D125">
-        <v>0.1580596897268107</v>
-      </c>
-      <c r="E125">
-        <v>317.0402237260061</v>
-      </c>
-      <c r="F125">
-        <v>-1.798577860534014</v>
-      </c>
-      <c r="G125">
-        <v>0.07303654655962386</v>
-      </c>
-      <c r="H125">
-        <v>-0.585810269571882</v>
-      </c>
-      <c r="I125">
-        <v>0.03063556708907537</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>rplthemes</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>0.02560258974440326</v>
-      </c>
-      <c r="D126">
-        <v>0.1182957467906876</v>
-      </c>
-      <c r="E126">
-        <v>316.637997772342</v>
-      </c>
-      <c r="F126">
-        <v>0.2164286581638854</v>
-      </c>
-      <c r="G126">
-        <v>0.8287929976275885</v>
-      </c>
-      <c r="H126">
-        <v>-0.1954587710963527</v>
-      </c>
-      <c r="I126">
-        <v>0.2805153924445259</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>percentblackorafricanamerican</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>-0.07279015690436529</v>
-      </c>
-      <c r="D127">
-        <v>0.128840786024105</v>
-      </c>
-      <c r="E127">
-        <v>297.659872629958</v>
-      </c>
-      <c r="F127">
-        <v>-0.5649620679180493</v>
-      </c>
-      <c r="G127">
-        <v>0.5725250981915195</v>
-      </c>
-      <c r="H127">
-        <v>-0.3564579871160112</v>
-      </c>
-      <c r="I127">
-        <v>0.1816934877448107</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>schoollevelHS</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>0.2676501974802603</v>
-      </c>
-      <c r="D128">
-        <v>0.2389700556321904</v>
-      </c>
-      <c r="E128">
-        <v>313.650595215813</v>
-      </c>
-      <c r="F128">
-        <v>1.120015630293917</v>
-      </c>
-      <c r="G128">
-        <v>0.26356400268227</v>
-      </c>
-      <c r="H128">
-        <v>-0.2051302036231795</v>
-      </c>
-      <c r="I128">
-        <v>0.740804682380788</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>schoollevelMS</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>0.2432566602655176</v>
-      </c>
-      <c r="D129">
-        <v>0.2298600700669864</v>
-      </c>
-      <c r="E129">
-        <v>306.1186317208816</v>
-      </c>
-      <c r="F129">
-        <v>1.05828150228366</v>
-      </c>
-      <c r="G129">
-        <v>0.2907614875036456</v>
-      </c>
-      <c r="H129">
-        <v>-0.1898617599644064</v>
-      </c>
-      <c r="I129">
-        <v>0.7106869668769419</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>cntycaseschange</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>-0.09897154569938366</v>
-      </c>
-      <c r="D130">
-        <v>0.1658605815490775</v>
-      </c>
-      <c r="E130">
-        <v>51.23465557384009</v>
-      </c>
-      <c r="F130">
-        <v>-0.5967152941043944</v>
-      </c>
-      <c r="G130">
-        <v>0.5533252276744891</v>
-      </c>
-      <c r="H130">
-        <v>-0.461906496659212</v>
-      </c>
-      <c r="I130">
-        <v>0.2809879813586004</v>
+        <v>0.05245526079871608</v>
       </c>
     </row>
   </sheetData>
